--- a/Tables_Other/Tables_Models.xlsx
+++ b/Tables_Other/Tables_Models.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carmenrodriguez/Desktop/Research Projects/EC optimal care data/ECBayesBinMix Manuscript/Aux Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carmenrodriguez/Desktop/Research Projects/BayesBinMix/ecbayesbinmix/Tables_Other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB41E3C-62DA-CE4D-B4FA-D95B129AEB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3B127E-589F-6043-9562-D3D04043265A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="500" windowWidth="33100" windowHeight="20720" activeTab="5" xr2:uid="{3C93BFA3-DCF0-6A4C-BE1A-7CEC319431AB}"/>
+    <workbookView xWindow="12740" yWindow="500" windowWidth="24120" windowHeight="20720" activeTab="6" xr2:uid="{3C93BFA3-DCF0-6A4C-BE1A-7CEC319431AB}"/>
   </bookViews>
   <sheets>
     <sheet name="old version" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ACS2011-2015" sheetId="4" r:id="rId4"/>
     <sheet name="ACS2015-2019" sheetId="5" r:id="rId5"/>
     <sheet name="Models_3.18.24" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3613" uniqueCount="2153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3713" uniqueCount="2231">
   <si>
     <t>Not optimal</t>
   </si>
@@ -7450,12 +7451,249 @@
       <t>***</t>
     </r>
   </si>
+  <si>
+    <t>Cluster 1</t>
+  </si>
+  <si>
+    <t>Cluster 2</t>
+  </si>
+  <si>
+    <t>Cluster 3</t>
+  </si>
+  <si>
+    <t>Cluster 4</t>
+  </si>
+  <si>
+    <t>Cluster 5</t>
+  </si>
+  <si>
+    <t>Cluster 6</t>
+  </si>
+  <si>
+    <t>Cluster 7</t>
+  </si>
+  <si>
+    <t>Cluster 8</t>
+  </si>
+  <si>
+    <t>Cluster 9</t>
+  </si>
+  <si>
+    <t>Median [Min, Max]</t>
+  </si>
+  <si>
+    <t>Assingment probability (ECR algorithm) *</t>
+  </si>
+  <si>
+    <t>n_orig</t>
+  </si>
+  <si>
+    <t>0.937 (0.136)</t>
+  </si>
+  <si>
+    <t>0.560 (0.140)</t>
+  </si>
+  <si>
+    <t>0.845 (0.180)</t>
+  </si>
+  <si>
+    <t>0.920 (0.134)</t>
+  </si>
+  <si>
+    <t>0.846 (0.163)</t>
+  </si>
+  <si>
+    <t>0.884 (0.148)</t>
+  </si>
+  <si>
+    <t>0.853 (0.170)</t>
+  </si>
+  <si>
+    <t>0.994 [0.223, 0.999]</t>
+  </si>
+  <si>
+    <t>0.545 [0.310, 0.785]</t>
+  </si>
+  <si>
+    <t>0.927 [0.289, 0.996]</t>
+  </si>
+  <si>
+    <t>0.968 [0.219, 0.986]</t>
+  </si>
+  <si>
+    <t>0.923 [0.277, 0.990]</t>
+  </si>
+  <si>
+    <t>0.962 [0.351, 0.989]</t>
+  </si>
+  <si>
+    <t>0.935 [0.329, 0.994]</t>
+  </si>
+  <si>
+    <t>n_relabeled</t>
+  </si>
+  <si>
+    <t>0.570 [0.425, 0.817]</t>
+  </si>
+  <si>
+    <t>0.960 [0.242, 0.991]</t>
+  </si>
+  <si>
+    <t>0.737 [0.247, 0.898]</t>
+  </si>
+  <si>
+    <t>0.896 [0.218, 0.980]</t>
+  </si>
+  <si>
+    <t>0.782 [0.297, 0.951]</t>
+  </si>
+  <si>
+    <t>0.975 [0.400, 0.992]</t>
+  </si>
+  <si>
+    <t>0.899 [0.288, 0.998]</t>
+  </si>
+  <si>
+    <t>0.689 [0.333, 0.982]</t>
+  </si>
+  <si>
+    <t>0.713 (0.189)</t>
+  </si>
+  <si>
+    <t>0.588 (0.105)</t>
+  </si>
+  <si>
+    <t>0.660 (0.205)</t>
+  </si>
+  <si>
+    <t>0.817 (0.190)</t>
+  </si>
+  <si>
+    <t>0.763 (0.148)</t>
+  </si>
+  <si>
+    <t>0.914 (0.130)</t>
+  </si>
+  <si>
+    <t>0.834 (0.179)</t>
+  </si>
+  <si>
+    <t>0.865 (0.170)</t>
+  </si>
+  <si>
+    <t>0.682 (0.162)</t>
+  </si>
+  <si>
+    <t>0.806 (0.173)</t>
+  </si>
+  <si>
+    <t>0.746 (0.176)</t>
+  </si>
+  <si>
+    <t>0.755 (0.133)</t>
+  </si>
+  <si>
+    <t>0.711 (0.194)</t>
+  </si>
+  <si>
+    <t>0.798 (0.181)</t>
+  </si>
+  <si>
+    <t>0.773 (0.180)</t>
+  </si>
+  <si>
+    <t>.916 (0.139</t>
+  </si>
+  <si>
+    <t>0.695 (0.176)</t>
+  </si>
+  <si>
+    <t>0.724 [0.381, 0.929]</t>
+  </si>
+  <si>
+    <t>0.976 [0.302, 0.999]</t>
+  </si>
+  <si>
+    <t>0.705 [0.336, 0.958]</t>
+  </si>
+  <si>
+    <t>0.873 [0.175, 0.978]</t>
+  </si>
+  <si>
+    <t>0.777 [0.472, 0.986]</t>
+  </si>
+  <si>
+    <t>0.660 [0.343, 0.987]</t>
+  </si>
+  <si>
+    <t>0.856 [0.167, 0.994]</t>
+  </si>
+  <si>
+    <t>0.828 [0.372, 0.996]</t>
+  </si>
+  <si>
+    <t>0.773 [0.161, 0.993]</t>
+  </si>
+  <si>
+    <t>2006-2010</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>p.1</t>
+  </si>
+  <si>
+    <t>p.2</t>
+  </si>
+  <si>
+    <t>p.3</t>
+  </si>
+  <si>
+    <t>p.4</t>
+  </si>
+  <si>
+    <t>p.5</t>
+  </si>
+  <si>
+    <t>p.6</t>
+  </si>
+  <si>
+    <t>p.7</t>
+  </si>
+  <si>
+    <t>p.8</t>
+  </si>
+  <si>
+    <t>p.9</t>
+  </si>
+  <si>
+    <t>2011-2015</t>
+  </si>
+  <si>
+    <t>2015-2019</t>
+  </si>
+  <si>
+    <t>ACS 2006-2010**</t>
+  </si>
+  <si>
+    <t>ACS 2011-2015***</t>
+  </si>
+  <si>
+    <t>ACS 2015-2019***</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7593,8 +7831,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7610,6 +7894,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7668,7 +7958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7764,6 +8054,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7784,36 +8101,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8136,16 +8489,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="39"/>
+    <col min="1" max="1" width="10.83203125" style="50"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="39"/>
+    <col min="6" max="6" width="10.83203125" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="37"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="1" t="s">
         <v>240</v>
       </c>
@@ -8157,7 +8510,7 @@
       </c>
     </row>
     <row r="2" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="38"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -10814,30 +11167,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="53" t="s">
         <v>808</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="O1" s="43"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="O1" s="54"/>
       <c r="P1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="54" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="51" t="s">
         <v>807</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -10867,20 +11220,20 @@
       <c r="J2" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="O2" s="43"/>
+      <c r="O2" s="54"/>
       <c r="P2" s="24" t="s">
         <v>1423</v>
       </c>
       <c r="Q2" s="24" t="s">
         <v>1424</v>
       </c>
-      <c r="R2" s="43"/>
+      <c r="R2" s="54"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="27" t="s">
         <v>395</v>
       </c>
@@ -10908,7 +11261,7 @@
       <c r="J3" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="52"/>
       <c r="O3" s="24" t="s">
         <v>5</v>
       </c>
@@ -13955,30 +14308,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="53" t="s">
         <v>808</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="P1" s="43"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="P1" s="54"/>
       <c r="Q1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="R1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="55" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="27" t="s">
         <v>394</v>
       </c>
@@ -14003,20 +14356,20 @@
       <c r="I2" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="55" t="s">
         <v>370</v>
       </c>
-      <c r="P2" s="43"/>
+      <c r="P2" s="54"/>
       <c r="Q2" s="27" t="s">
         <v>1689</v>
       </c>
       <c r="R2" s="27" t="s">
         <v>1690</v>
       </c>
-      <c r="S2" s="44"/>
+      <c r="S2" s="55"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="27" t="s">
         <v>809</v>
       </c>
@@ -14041,7 +14394,7 @@
       <c r="I3" s="27" t="s">
         <v>816</v>
       </c>
-      <c r="J3" s="44"/>
+      <c r="J3" s="55"/>
       <c r="P3" s="24" t="s">
         <v>5</v>
       </c>
@@ -14993,7 +15346,7 @@
       <c r="R29" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="S29" s="45" t="s">
+      <c r="S29" s="37" t="s">
         <v>1728</v>
       </c>
     </row>
@@ -16865,30 +17218,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="53" t="s">
         <v>808</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="L1" s="43"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="L1" s="54"/>
       <c r="M1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="55" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="27" t="s">
         <v>394</v>
       </c>
@@ -16910,20 +17263,20 @@
       <c r="H2" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="55" t="s">
         <v>370</v>
       </c>
-      <c r="L2" s="43"/>
+      <c r="L2" s="54"/>
       <c r="M2" s="27" t="s">
         <v>409</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>1898</v>
       </c>
-      <c r="O2" s="44"/>
+      <c r="O2" s="55"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="27" t="s">
         <v>1135</v>
       </c>
@@ -16945,7 +17298,7 @@
       <c r="H3" s="27" t="s">
         <v>1141</v>
       </c>
-      <c r="I3" s="44"/>
+      <c r="I3" s="55"/>
       <c r="L3" s="24" t="s">
         <v>5</v>
       </c>
@@ -19548,2558 +19901,3482 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9939FDB-9B8C-264D-80DF-DBC8B6890066}">
   <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="53" customWidth="1"/>
-    <col min="2" max="4" width="10.83203125" style="47"/>
-    <col min="5" max="5" width="18.5" style="47" customWidth="1"/>
-    <col min="6" max="10" width="10.83203125" style="47"/>
-    <col min="11" max="11" width="16.5" style="47" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="48"/>
+    <col min="1" max="1" width="30.6640625" style="44" customWidth="1"/>
+    <col min="2" max="4" width="10.83203125" style="39"/>
+    <col min="5" max="5" width="18.5" style="39" customWidth="1"/>
+    <col min="6" max="10" width="10.83203125" style="39"/>
+    <col min="11" max="11" width="16.5" style="39" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="38" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50" t="s">
+    <row r="2" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41"/>
+      <c r="B2" s="56" t="s">
         <v>1537</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56" t="s">
         <v>1538</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50" t="s">
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
         <v>1539</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56" t="s">
         <v>1540</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="56" t="s">
         <v>1541</v>
       </c>
-      <c r="K2" s="50"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43" t="s">
         <v>1686</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="43" t="s">
         <v>1422</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="43" t="s">
         <v>1686</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="43" t="s">
         <v>1422</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="43" t="s">
         <v>1686</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="43" t="s">
         <v>1422</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="43" t="s">
         <v>1686</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="43" t="s">
         <v>1422</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="43" t="s">
         <v>1686</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="43" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="44" t="s">
         <v>1650</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="39">
         <v>0.97</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="39" t="s">
         <v>1542</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="39">
         <v>0.98</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="39" t="s">
         <v>1543</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="39">
         <v>1</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="39" t="s">
         <v>1544</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="39">
         <v>0.79</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="39" t="s">
         <v>1545</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="39">
         <v>0.8</v>
       </c>
-      <c r="K4" s="47" t="s">
+      <c r="K4" s="39" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="44" t="s">
         <v>1651</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="39">
         <v>0.91</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="39" t="s">
         <v>1547</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="39">
         <v>0.9</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="39" t="s">
         <v>1548</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="39">
         <v>0.91</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="39" t="s">
         <v>1549</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="39">
         <v>0.86</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="39" t="s">
         <v>1550</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="39">
         <v>0.82</v>
       </c>
-      <c r="K5" s="47" t="s">
+      <c r="K5" s="39" t="s">
         <v>1551</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="44" t="s">
         <v>1652</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="39">
         <v>0.98</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="39" t="s">
         <v>1552</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="39">
         <v>0.95</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="39" t="s">
         <v>1553</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="39">
         <v>0.93</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="39" t="s">
         <v>1554</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="39">
         <v>0.99</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="39" t="s">
         <v>1555</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="39">
         <v>0.91</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="K6" s="39" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="44" t="s">
         <v>1653</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="39" t="s">
         <v>2080</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="39" t="s">
         <v>1557</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="39" t="s">
         <v>2081</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="39" t="s">
         <v>1558</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="39" t="s">
         <v>2082</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="39" t="s">
         <v>1559</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="39" t="s">
         <v>2083</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="39" t="s">
         <v>1560</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="39" t="s">
         <v>2084</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="39" t="s">
         <v>1561</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="44" t="s">
         <v>1654</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="39" t="s">
         <v>2085</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="39" t="s">
         <v>1562</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="39" t="s">
         <v>2085</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="39" t="s">
         <v>1563</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="39" t="s">
         <v>2085</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="39" t="s">
         <v>1563</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="39" t="s">
         <v>2086</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="39" t="s">
         <v>1564</v>
       </c>
-      <c r="J8" s="47" t="s">
+      <c r="J8" s="39" t="s">
         <v>2086</v>
       </c>
-      <c r="K8" s="47" t="s">
+      <c r="K8" s="39" t="s">
         <v>1565</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="44" t="s">
         <v>1655</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="39">
         <v>0.81</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="39" t="s">
         <v>1566</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="39">
         <v>0.78</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="39" t="s">
         <v>1567</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="39">
         <v>0.76</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="39" t="s">
         <v>1568</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="39">
         <v>0.68</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="39" t="s">
         <v>1569</v>
       </c>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="39" t="s">
         <v>2087</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="39" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="44" t="s">
         <v>1656</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="39" t="s">
         <v>2088</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="39" t="s">
         <v>1571</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="39" t="s">
         <v>2088</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="39" t="s">
         <v>1572</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="39" t="s">
         <v>2088</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="39" t="s">
         <v>1573</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="39" t="s">
         <v>2083</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="39" t="s">
         <v>1574</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="39" t="s">
         <v>2083</v>
       </c>
-      <c r="K10" s="47" t="s">
+      <c r="K10" s="39" t="s">
         <v>1575</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="44" t="s">
         <v>1657</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="39">
         <v>0.89</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="39" t="s">
         <v>1576</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="39">
         <v>0.88</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="39" t="s">
         <v>1577</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="39">
         <v>0.82</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="39" t="s">
         <v>1578</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="39">
         <v>0.85</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="39" t="s">
         <v>1579</v>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="39">
         <v>0.8</v>
       </c>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="39" t="s">
         <v>1580</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="44" t="s">
         <v>1658</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="39" t="s">
         <v>2089</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="39" t="s">
         <v>1581</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="39">
         <v>1.28</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="39" t="s">
         <v>1582</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="39">
         <v>1.28</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="39" t="s">
         <v>1583</v>
       </c>
-      <c r="J12" s="47">
+      <c r="J12" s="39">
         <v>1.3</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="39" t="s">
         <v>1584</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="44" t="s">
         <v>1659</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="39">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="39" t="s">
         <v>1585</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="39">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="39" t="s">
         <v>1586</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="39">
         <v>1.06</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="39" t="s">
         <v>1587</v>
       </c>
-      <c r="J13" s="47">
+      <c r="J13" s="39">
         <v>1.0900000000000001</v>
       </c>
-      <c r="K13" s="47" t="s">
+      <c r="K13" s="39" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="44" t="s">
         <v>1660</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="39">
         <v>1.22</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="39" t="s">
         <v>1589</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="39">
         <v>1.22</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="39" t="s">
         <v>1590</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="39">
         <v>1.24</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="39" t="s">
         <v>1591</v>
       </c>
-      <c r="J14" s="47">
+      <c r="J14" s="39">
         <v>1.24</v>
       </c>
-      <c r="K14" s="47" t="s">
+      <c r="K14" s="39" t="s">
         <v>1592</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="44" t="s">
         <v>1661</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="39">
         <v>1.06</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="39" t="s">
         <v>1593</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="39">
         <v>1.03</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="39" t="s">
         <v>1594</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="39">
         <v>1.18</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="39" t="s">
         <v>1595</v>
       </c>
-      <c r="J15" s="47">
+      <c r="J15" s="39">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="39" t="s">
         <v>1596</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="44" t="s">
         <v>1662</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="39">
         <v>0.63</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="39" t="s">
         <v>1597</v>
       </c>
-      <c r="J16" s="47">
+      <c r="J16" s="39">
         <v>0.64</v>
       </c>
-      <c r="K16" s="47" t="s">
+      <c r="K16" s="39" t="s">
         <v>1598</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="39">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="39" t="s">
         <v>1599</v>
       </c>
-      <c r="J17" s="47">
+      <c r="J17" s="39">
         <v>1.18</v>
       </c>
-      <c r="K17" s="47" t="s">
+      <c r="K17" s="39" t="s">
         <v>1600</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="39">
         <v>0.97</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="39" t="s">
         <v>1601</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="39">
         <v>1.1200000000000001</v>
       </c>
-      <c r="K18" s="47" t="s">
+      <c r="K18" s="39" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="44" t="s">
         <v>1663</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="39">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="39" t="s">
         <v>1603</v>
       </c>
-      <c r="J19" s="47">
+      <c r="J19" s="39">
         <v>1.19</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="39" t="s">
         <v>1604</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="44" t="s">
         <v>1664</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="39" t="s">
         <v>2090</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="39" t="s">
         <v>1605</v>
       </c>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="39" t="s">
         <v>2091</v>
       </c>
-      <c r="K20" s="47" t="s">
+      <c r="K20" s="39" t="s">
         <v>1606</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="44" t="s">
         <v>1665</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="39">
         <v>1.21</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="39" t="s">
         <v>1607</v>
       </c>
-      <c r="J21" s="47">
+      <c r="J21" s="39">
         <v>1.26</v>
       </c>
-      <c r="K21" s="47" t="s">
+      <c r="K21" s="39" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="44" t="s">
         <v>1666</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="39" t="s">
         <v>2092</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="39" t="s">
         <v>1609</v>
       </c>
-      <c r="J22" s="47" t="s">
+      <c r="J22" s="39" t="s">
         <v>2093</v>
       </c>
-      <c r="K22" s="47" t="s">
+      <c r="K22" s="39" t="s">
         <v>1610</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="44" t="s">
         <v>1667</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="39">
         <v>0.95</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="39" t="s">
         <v>1611</v>
       </c>
-      <c r="J23" s="47">
+      <c r="J23" s="39">
         <v>0.8</v>
       </c>
-      <c r="K23" s="47" t="s">
+      <c r="K23" s="39" t="s">
         <v>1612</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="44" t="s">
         <v>1668</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="39">
         <v>1.54</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="39" t="s">
         <v>1613</v>
       </c>
-      <c r="J24" s="47">
+      <c r="J24" s="39">
         <v>1.52</v>
       </c>
-      <c r="K24" s="47" t="s">
+      <c r="K24" s="39" t="s">
         <v>1614</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="44" t="s">
         <v>1669</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="39" t="s">
         <v>2094</v>
       </c>
-      <c r="G25" s="47" t="s">
+      <c r="G25" s="39" t="s">
         <v>1615</v>
       </c>
-      <c r="J25" s="47" t="s">
+      <c r="J25" s="39" t="s">
         <v>2095</v>
       </c>
-      <c r="K25" s="47" t="s">
+      <c r="K25" s="39" t="s">
         <v>1616</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="44" t="s">
         <v>1670</v>
       </c>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="39" t="s">
         <v>2096</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="39" t="s">
         <v>1617</v>
       </c>
-      <c r="J26" s="47">
+      <c r="J26" s="39">
         <v>2.0099999999999998</v>
       </c>
-      <c r="K26" s="47" t="s">
+      <c r="K26" s="39" t="s">
         <v>1618</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="44" t="s">
         <v>1671</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="39" t="s">
         <v>2097</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="39" t="s">
         <v>1619</v>
       </c>
-      <c r="J27" s="47">
+      <c r="J27" s="39">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K27" s="47" t="s">
+      <c r="K27" s="39" t="s">
         <v>1620</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="44" t="s">
         <v>1672</v>
       </c>
-      <c r="F28" s="47">
+      <c r="F28" s="39">
         <v>1.17</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="39" t="s">
         <v>1621</v>
       </c>
-      <c r="J28" s="47">
+      <c r="J28" s="39">
         <v>0.76</v>
       </c>
-      <c r="K28" s="47" t="s">
+      <c r="K28" s="39" t="s">
         <v>1622</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="44" t="s">
         <v>1673</v>
       </c>
-      <c r="F29" s="47">
+      <c r="F29" s="39">
         <v>0.95</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="39" t="s">
         <v>1623</v>
       </c>
-      <c r="J29" s="47">
+      <c r="J29" s="39">
         <v>0.86</v>
       </c>
-      <c r="K29" s="47" t="s">
+      <c r="K29" s="39" t="s">
         <v>1624</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="44" t="s">
         <v>1674</v>
       </c>
-      <c r="F30" s="47">
+      <c r="F30" s="39">
         <v>1.02</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="39" t="s">
         <v>1625</v>
       </c>
-      <c r="J30" s="47">
+      <c r="J30" s="39">
         <v>0.96</v>
       </c>
-      <c r="K30" s="47" t="s">
+      <c r="K30" s="39" t="s">
         <v>1626</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="44" t="s">
         <v>1675</v>
       </c>
-      <c r="F31" s="47" t="s">
+      <c r="F31" s="39" t="s">
         <v>2098</v>
       </c>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="39" t="s">
         <v>1627</v>
       </c>
-      <c r="J31" s="47" t="s">
+      <c r="J31" s="39" t="s">
         <v>2099</v>
       </c>
-      <c r="K31" s="47" t="s">
+      <c r="K31" s="39" t="s">
         <v>1628</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="44" t="s">
         <v>1676</v>
       </c>
-      <c r="F32" s="47">
+      <c r="F32" s="39">
         <v>0.99</v>
       </c>
-      <c r="G32" s="47" t="s">
+      <c r="G32" s="39" t="s">
         <v>1629</v>
       </c>
-      <c r="J32" s="47">
+      <c r="J32" s="39">
         <v>1.03</v>
       </c>
-      <c r="K32" s="47" t="s">
+      <c r="K32" s="39" t="s">
         <v>1630</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="44" t="s">
         <v>1677</v>
       </c>
-      <c r="F33" s="47" t="s">
+      <c r="F33" s="39" t="s">
         <v>2089</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="G33" s="39" t="s">
         <v>1631</v>
       </c>
-      <c r="J33" s="47">
+      <c r="J33" s="39">
         <v>1.18</v>
       </c>
-      <c r="K33" s="47" t="s">
+      <c r="K33" s="39" t="s">
         <v>1632</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="44" t="s">
         <v>1678</v>
       </c>
-      <c r="F34" s="47" t="s">
+      <c r="F34" s="39" t="s">
         <v>2100</v>
       </c>
-      <c r="G34" s="47" t="s">
+      <c r="G34" s="39" t="s">
         <v>1633</v>
       </c>
-      <c r="J34" s="47" t="s">
+      <c r="J34" s="39" t="s">
         <v>2101</v>
       </c>
-      <c r="K34" s="47" t="s">
+      <c r="K34" s="39" t="s">
         <v>1634</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="44" t="s">
         <v>1679</v>
       </c>
-      <c r="F35" s="47">
+      <c r="F35" s="39">
         <v>1.05</v>
       </c>
-      <c r="G35" s="47" t="s">
+      <c r="G35" s="39" t="s">
         <v>1635</v>
       </c>
-      <c r="J35" s="47">
+      <c r="J35" s="39">
         <v>1.01</v>
       </c>
-      <c r="K35" s="47" t="s">
+      <c r="K35" s="39" t="s">
         <v>1636</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="44" t="s">
         <v>1680</v>
       </c>
-      <c r="F36" s="47">
+      <c r="F36" s="39">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G36" s="47" t="s">
+      <c r="G36" s="39" t="s">
         <v>1637</v>
       </c>
-      <c r="J36" s="47">
+      <c r="J36" s="39">
         <v>0.97</v>
       </c>
-      <c r="K36" s="47" t="s">
+      <c r="K36" s="39" t="s">
         <v>1638</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="44" t="s">
         <v>1681</v>
       </c>
-      <c r="H37" s="47" t="s">
+      <c r="H37" s="39" t="s">
         <v>2102</v>
       </c>
-      <c r="I37" s="47" t="s">
+      <c r="I37" s="39" t="s">
         <v>1639</v>
       </c>
-      <c r="J37" s="47" t="s">
+      <c r="J37" s="39" t="s">
         <v>2103</v>
       </c>
-      <c r="K37" s="47" t="s">
+      <c r="K37" s="39" t="s">
         <v>1640</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="44" t="s">
         <v>1682</v>
       </c>
-      <c r="H38" s="47" t="s">
+      <c r="H38" s="39" t="s">
         <v>2104</v>
       </c>
-      <c r="I38" s="47" t="s">
+      <c r="I38" s="39" t="s">
         <v>1641</v>
       </c>
-      <c r="J38" s="47" t="s">
+      <c r="J38" s="39" t="s">
         <v>2105</v>
       </c>
-      <c r="K38" s="47" t="s">
+      <c r="K38" s="39" t="s">
         <v>1642</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="44" t="s">
         <v>1683</v>
       </c>
-      <c r="H39" s="47" t="s">
+      <c r="H39" s="39" t="s">
         <v>2106</v>
       </c>
-      <c r="I39" s="47" t="s">
+      <c r="I39" s="39" t="s">
         <v>1643</v>
       </c>
-      <c r="J39" s="47" t="s">
+      <c r="J39" s="39" t="s">
         <v>2107</v>
       </c>
-      <c r="K39" s="47" t="s">
+      <c r="K39" s="39" t="s">
         <v>1644</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="44" t="s">
         <v>1684</v>
       </c>
-      <c r="H40" s="47" t="s">
+      <c r="H40" s="39" t="s">
         <v>2108</v>
       </c>
-      <c r="I40" s="47" t="s">
+      <c r="I40" s="39" t="s">
         <v>1645</v>
       </c>
-      <c r="J40" s="47" t="s">
+      <c r="J40" s="39" t="s">
         <v>2109</v>
       </c>
-      <c r="K40" s="47" t="s">
+      <c r="K40" s="39" t="s">
         <v>1646</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="44" t="s">
         <v>1685</v>
       </c>
-      <c r="H41" s="47" t="s">
+      <c r="H41" s="39" t="s">
         <v>2110</v>
       </c>
-      <c r="I41" s="47" t="s">
+      <c r="I41" s="39" t="s">
         <v>1647</v>
       </c>
-      <c r="J41" s="47" t="s">
+      <c r="J41" s="39" t="s">
         <v>2111</v>
       </c>
-      <c r="K41" s="47" t="s">
+      <c r="K41" s="39" t="s">
         <v>1648</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="42" t="s">
         <v>1649</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="38" t="s">
         <v>1688</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
-      <c r="B46" s="50" t="s">
+      <c r="A46" s="45"/>
+      <c r="B46" s="56" t="s">
         <v>1537</v>
       </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50" t="s">
+      <c r="C46" s="56"/>
+      <c r="D46" s="56" t="s">
         <v>1538</v>
       </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50" t="s">
+      <c r="E46" s="56"/>
+      <c r="F46" s="56" t="s">
         <v>1539</v>
       </c>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50" t="s">
+      <c r="G46" s="56"/>
+      <c r="H46" s="56" t="s">
         <v>1540</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50" t="s">
+      <c r="I46" s="56"/>
+      <c r="J46" s="56" t="s">
         <v>1541</v>
       </c>
-      <c r="K46" s="50"/>
+      <c r="K46" s="56"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="51"/>
-      <c r="B47" s="52" t="s">
+      <c r="A47" s="42"/>
+      <c r="B47" s="43" t="s">
         <v>1686</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="43" t="s">
         <v>1422</v>
       </c>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="43" t="s">
         <v>1686</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="E47" s="43" t="s">
         <v>1422</v>
       </c>
-      <c r="F47" s="52" t="s">
+      <c r="F47" s="43" t="s">
         <v>1686</v>
       </c>
-      <c r="G47" s="52" t="s">
+      <c r="G47" s="43" t="s">
         <v>1422</v>
       </c>
-      <c r="H47" s="52" t="s">
+      <c r="H47" s="43" t="s">
         <v>1686</v>
       </c>
-      <c r="I47" s="52" t="s">
+      <c r="I47" s="43" t="s">
         <v>1422</v>
       </c>
-      <c r="J47" s="52" t="s">
+      <c r="J47" s="43" t="s">
         <v>1686</v>
       </c>
-      <c r="K47" s="52" t="s">
+      <c r="K47" s="43" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="44" t="s">
         <v>1650</v>
       </c>
-      <c r="B48" s="47">
+      <c r="B48" s="39">
         <v>0.54</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="39" t="s">
         <v>1795</v>
       </c>
-      <c r="D48" s="47">
+      <c r="D48" s="39">
         <v>0.52</v>
       </c>
-      <c r="E48" s="47" t="s">
+      <c r="E48" s="39" t="s">
         <v>1796</v>
       </c>
-      <c r="F48" s="47">
+      <c r="F48" s="39">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G48" s="47" t="s">
+      <c r="G48" s="39" t="s">
         <v>1797</v>
       </c>
-      <c r="H48" s="47">
+      <c r="H48" s="39">
         <v>0.78</v>
       </c>
-      <c r="I48" s="47" t="s">
+      <c r="I48" s="39" t="s">
         <v>1798</v>
       </c>
-      <c r="J48" s="47">
+      <c r="J48" s="39">
         <v>0.89</v>
       </c>
-      <c r="K48" s="47" t="s">
+      <c r="K48" s="39" t="s">
         <v>1799</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="44" t="s">
         <v>1652</v>
       </c>
-      <c r="B49" s="47">
+      <c r="B49" s="39">
         <v>1.33</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="39" t="s">
         <v>1800</v>
       </c>
-      <c r="D49" s="47">
+      <c r="D49" s="39">
         <v>1.34</v>
       </c>
-      <c r="E49" s="47" t="s">
+      <c r="E49" s="39" t="s">
         <v>1801</v>
       </c>
-      <c r="F49" s="47">
+      <c r="F49" s="39">
         <v>1.34</v>
       </c>
-      <c r="G49" s="47" t="s">
+      <c r="G49" s="39" t="s">
         <v>1802</v>
       </c>
-      <c r="H49" s="47">
+      <c r="H49" s="39">
         <v>1.47</v>
       </c>
-      <c r="I49" s="47" t="s">
+      <c r="I49" s="39" t="s">
         <v>1803</v>
       </c>
-      <c r="J49" s="47">
+      <c r="J49" s="39">
         <v>1.53</v>
       </c>
-      <c r="K49" s="47" t="s">
+      <c r="K49" s="39" t="s">
         <v>1804</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="44" t="s">
         <v>1805</v>
       </c>
-      <c r="B50" s="47">
+      <c r="B50" s="39">
         <v>1.34</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="39" t="s">
         <v>1806</v>
       </c>
-      <c r="D50" s="47">
+      <c r="D50" s="39">
         <v>1.34</v>
       </c>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="39" t="s">
         <v>1807</v>
       </c>
-      <c r="F50" s="47">
+      <c r="F50" s="39">
         <v>1.4</v>
       </c>
-      <c r="G50" s="47" t="s">
+      <c r="G50" s="39" t="s">
         <v>1808</v>
       </c>
-      <c r="H50" s="47">
+      <c r="H50" s="39">
         <v>1.56</v>
       </c>
-      <c r="I50" s="47" t="s">
+      <c r="I50" s="39" t="s">
         <v>1809</v>
       </c>
-      <c r="J50" s="47">
+      <c r="J50" s="39">
         <v>1.62</v>
       </c>
-      <c r="K50" s="47" t="s">
+      <c r="K50" s="39" t="s">
         <v>1810</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="44" t="s">
         <v>1653</v>
       </c>
-      <c r="B51" s="47">
+      <c r="B51" s="39">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C51" s="47" t="s">
+      <c r="C51" s="39" t="s">
         <v>1811</v>
       </c>
-      <c r="D51" s="47">
+      <c r="D51" s="39">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E51" s="47" t="s">
+      <c r="E51" s="39" t="s">
         <v>1812</v>
       </c>
-      <c r="F51" s="47">
+      <c r="F51" s="39">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G51" s="47" t="s">
+      <c r="G51" s="39" t="s">
         <v>1813</v>
       </c>
-      <c r="H51" s="47">
+      <c r="H51" s="39">
         <v>1.1399999999999999</v>
       </c>
-      <c r="I51" s="47" t="s">
+      <c r="I51" s="39" t="s">
         <v>1814</v>
       </c>
-      <c r="J51" s="47">
+      <c r="J51" s="39">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K51" s="47" t="s">
+      <c r="K51" s="39" t="s">
         <v>1815</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="44" t="s">
         <v>1654</v>
       </c>
-      <c r="B52" s="47">
+      <c r="B52" s="39">
         <v>1.25</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="39" t="s">
         <v>1816</v>
       </c>
-      <c r="D52" s="47">
+      <c r="D52" s="39">
         <v>1.22</v>
       </c>
-      <c r="E52" s="47" t="s">
+      <c r="E52" s="39" t="s">
         <v>1817</v>
       </c>
-      <c r="F52" s="47">
+      <c r="F52" s="39">
         <v>1.27</v>
       </c>
-      <c r="G52" s="47" t="s">
+      <c r="G52" s="39" t="s">
         <v>1818</v>
       </c>
-      <c r="H52" s="47">
+      <c r="H52" s="39">
         <v>1.34</v>
       </c>
-      <c r="I52" s="47" t="s">
+      <c r="I52" s="39" t="s">
         <v>1819</v>
       </c>
-      <c r="J52" s="47">
+      <c r="J52" s="39">
         <v>1.44</v>
       </c>
-      <c r="K52" s="47" t="s">
+      <c r="K52" s="39" t="s">
         <v>1820</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="44" t="s">
         <v>1655</v>
       </c>
-      <c r="B53" s="47">
+      <c r="B53" s="39">
         <v>1.51</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="39" t="s">
         <v>1821</v>
       </c>
-      <c r="D53" s="47">
+      <c r="D53" s="39">
         <v>1.44</v>
       </c>
-      <c r="E53" s="47" t="s">
+      <c r="E53" s="39" t="s">
         <v>1822</v>
       </c>
-      <c r="F53" s="47">
+      <c r="F53" s="39">
         <v>1.47</v>
       </c>
-      <c r="G53" s="47" t="s">
+      <c r="G53" s="39" t="s">
         <v>1823</v>
       </c>
-      <c r="H53" s="47">
+      <c r="H53" s="39">
         <v>1.21</v>
       </c>
-      <c r="I53" s="47" t="s">
+      <c r="I53" s="39" t="s">
         <v>1824</v>
       </c>
-      <c r="J53" s="47">
+      <c r="J53" s="39">
         <v>1.17</v>
       </c>
-      <c r="K53" s="47" t="s">
+      <c r="K53" s="39" t="s">
         <v>1825</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="44" t="s">
         <v>1656</v>
       </c>
-      <c r="B54" s="47">
+      <c r="B54" s="39">
         <v>1.52</v>
       </c>
-      <c r="C54" s="47" t="s">
+      <c r="C54" s="39" t="s">
         <v>1826</v>
       </c>
-      <c r="D54" s="47">
+      <c r="D54" s="39">
         <v>1.51</v>
       </c>
-      <c r="E54" s="47" t="s">
+      <c r="E54" s="39" t="s">
         <v>1827</v>
       </c>
-      <c r="F54" s="47" t="s">
+      <c r="F54" s="39" t="s">
         <v>2112</v>
       </c>
-      <c r="G54" s="47" t="s">
+      <c r="G54" s="39" t="s">
         <v>1828</v>
       </c>
-      <c r="H54" s="47">
+      <c r="H54" s="39">
         <v>1.55</v>
       </c>
-      <c r="I54" s="47" t="s">
+      <c r="I54" s="39" t="s">
         <v>1829</v>
       </c>
-      <c r="J54" s="47">
+      <c r="J54" s="39">
         <v>1.59</v>
       </c>
-      <c r="K54" s="47" t="s">
+      <c r="K54" s="39" t="s">
         <v>1830</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="53" t="s">
+      <c r="A55" s="44" t="s">
         <v>1831</v>
       </c>
-      <c r="D55" s="47">
+      <c r="D55" s="39">
         <v>0.99</v>
       </c>
-      <c r="E55" s="47" t="s">
+      <c r="E55" s="39" t="s">
         <v>1832</v>
       </c>
-      <c r="F55" s="47">
+      <c r="F55" s="39">
         <v>1.05</v>
       </c>
-      <c r="G55" s="47" t="s">
+      <c r="G55" s="39" t="s">
         <v>1833</v>
       </c>
-      <c r="H55" s="47">
+      <c r="H55" s="39">
         <v>0.95</v>
       </c>
-      <c r="I55" s="47" t="s">
+      <c r="I55" s="39" t="s">
         <v>1834</v>
       </c>
-      <c r="J55" s="47">
+      <c r="J55" s="39">
         <v>0.95</v>
       </c>
-      <c r="K55" s="47" t="s">
+      <c r="K55" s="39" t="s">
         <v>1835</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="53" t="s">
+      <c r="A56" s="44" t="s">
         <v>1836</v>
       </c>
-      <c r="D56" s="47">
+      <c r="D56" s="39">
         <v>0.88</v>
       </c>
-      <c r="E56" s="47" t="s">
+      <c r="E56" s="39" t="s">
         <v>1837</v>
       </c>
-      <c r="F56" s="47">
+      <c r="F56" s="39">
         <v>0.93</v>
       </c>
-      <c r="G56" s="47" t="s">
+      <c r="G56" s="39" t="s">
         <v>1838</v>
       </c>
-      <c r="H56" s="47">
+      <c r="H56" s="39">
         <v>0.79</v>
       </c>
-      <c r="I56" s="47" t="s">
+      <c r="I56" s="39" t="s">
         <v>1839</v>
       </c>
-      <c r="J56" s="47">
+      <c r="J56" s="39">
         <v>0.8</v>
       </c>
-      <c r="K56" s="47" t="s">
+      <c r="K56" s="39" t="s">
         <v>1840</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="44" t="s">
         <v>1841</v>
       </c>
-      <c r="D57" s="47">
+      <c r="D57" s="39">
         <v>0.97</v>
       </c>
-      <c r="E57" s="47" t="s">
+      <c r="E57" s="39" t="s">
         <v>1842</v>
       </c>
-      <c r="F57" s="47">
+      <c r="F57" s="39">
         <v>1.02</v>
       </c>
-      <c r="G57" s="47" t="s">
+      <c r="G57" s="39" t="s">
         <v>1843</v>
       </c>
-      <c r="H57" s="47">
+      <c r="H57" s="39">
         <v>0.8</v>
       </c>
-      <c r="I57" s="47" t="s">
+      <c r="I57" s="39" t="s">
         <v>1844</v>
       </c>
-      <c r="J57" s="47">
+      <c r="J57" s="39">
         <v>0.83</v>
       </c>
-      <c r="K57" s="47" t="s">
+      <c r="K57" s="39" t="s">
         <v>1845</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="53" t="s">
+      <c r="A58" s="44" t="s">
         <v>1662</v>
       </c>
-      <c r="D58" s="47">
+      <c r="D58" s="39">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E58" s="47" t="s">
+      <c r="E58" s="39" t="s">
         <v>1846</v>
       </c>
-      <c r="J58" s="47">
+      <c r="J58" s="39">
         <v>0.87</v>
       </c>
-      <c r="K58" s="47" t="s">
+      <c r="K58" s="39" t="s">
         <v>1847</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="53" t="s">
+      <c r="A59" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="47" t="s">
+      <c r="D59" s="39" t="s">
         <v>2113</v>
       </c>
-      <c r="E59" s="47" t="s">
+      <c r="E59" s="39" t="s">
         <v>1848</v>
       </c>
-      <c r="J59" s="47">
+      <c r="J59" s="39">
         <v>1.82</v>
       </c>
-      <c r="K59" s="47" t="s">
+      <c r="K59" s="39" t="s">
         <v>1849</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="47">
+      <c r="D60" s="39">
         <v>0.64</v>
       </c>
-      <c r="E60" s="47" t="s">
+      <c r="E60" s="39" t="s">
         <v>1850</v>
       </c>
-      <c r="J60" s="47">
+      <c r="J60" s="39">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K60" s="47" t="s">
+      <c r="K60" s="39" t="s">
         <v>1851</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="44" t="s">
         <v>1663</v>
       </c>
-      <c r="D61" s="47">
+      <c r="D61" s="39">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E61" s="47" t="s">
+      <c r="E61" s="39" t="s">
         <v>1852</v>
       </c>
-      <c r="J61" s="47">
+      <c r="J61" s="39">
         <v>0.79</v>
       </c>
-      <c r="K61" s="47" t="s">
+      <c r="K61" s="39" t="s">
         <v>1853</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="53" t="s">
+      <c r="A62" s="44" t="s">
         <v>1664</v>
       </c>
-      <c r="D62" s="47" t="s">
+      <c r="D62" s="39" t="s">
         <v>2114</v>
       </c>
-      <c r="E62" s="47" t="s">
+      <c r="E62" s="39" t="s">
         <v>1854</v>
       </c>
-      <c r="J62" s="47">
+      <c r="J62" s="39">
         <v>1.06</v>
       </c>
-      <c r="K62" s="47" t="s">
+      <c r="K62" s="39" t="s">
         <v>1855</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="53" t="s">
+      <c r="A63" s="44" t="s">
         <v>1665</v>
       </c>
-      <c r="D63" s="47">
+      <c r="D63" s="39">
         <v>1.19</v>
       </c>
-      <c r="E63" s="47" t="s">
+      <c r="E63" s="39" t="s">
         <v>1856</v>
       </c>
-      <c r="J63" s="47">
+      <c r="J63" s="39">
         <v>1.2</v>
       </c>
-      <c r="K63" s="47" t="s">
+      <c r="K63" s="39" t="s">
         <v>1857</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="53" t="s">
+      <c r="A64" s="44" t="s">
         <v>1666</v>
       </c>
-      <c r="D64" s="47">
+      <c r="D64" s="39">
         <v>1.44</v>
       </c>
-      <c r="E64" s="47" t="s">
+      <c r="E64" s="39" t="s">
         <v>1858</v>
       </c>
-      <c r="J64" s="47">
+      <c r="J64" s="39">
         <v>1.59</v>
       </c>
-      <c r="K64" s="47" t="s">
+      <c r="K64" s="39" t="s">
         <v>1859</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="53" t="s">
+      <c r="A65" s="44" t="s">
         <v>1667</v>
       </c>
-      <c r="D65" s="47">
+      <c r="D65" s="39">
         <v>0.66</v>
       </c>
-      <c r="E65" s="47" t="s">
+      <c r="E65" s="39" t="s">
         <v>1860</v>
       </c>
-      <c r="J65" s="47">
+      <c r="J65" s="39">
         <v>0.95</v>
       </c>
-      <c r="K65" s="47" t="s">
+      <c r="K65" s="39" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="44" t="s">
         <v>1668</v>
       </c>
-      <c r="D66" s="47" t="s">
+      <c r="D66" s="39" t="s">
         <v>2115</v>
       </c>
-      <c r="E66" s="47" t="s">
+      <c r="E66" s="39" t="s">
         <v>1862</v>
       </c>
-      <c r="J66" s="47">
+      <c r="J66" s="39">
         <v>2.82</v>
       </c>
-      <c r="K66" s="47" t="s">
+      <c r="K66" s="39" t="s">
         <v>1863</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="44" t="s">
         <v>1669</v>
       </c>
-      <c r="F67" s="47">
+      <c r="F67" s="39">
         <v>0.92</v>
       </c>
-      <c r="G67" s="47" t="s">
+      <c r="G67" s="39" t="s">
         <v>1864</v>
       </c>
-      <c r="J67" s="47">
+      <c r="J67" s="39">
         <v>0.84</v>
       </c>
-      <c r="K67" s="47" t="s">
+      <c r="K67" s="39" t="s">
         <v>1865</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="53" t="s">
+      <c r="A68" s="44" t="s">
         <v>1670</v>
       </c>
-      <c r="F68" s="47" t="s">
+      <c r="F68" s="39" t="s">
         <v>2116</v>
       </c>
-      <c r="G68" s="47" t="s">
+      <c r="G68" s="39" t="s">
         <v>1866</v>
       </c>
-      <c r="J68" s="47" t="s">
+      <c r="J68" s="39" t="s">
         <v>2117</v>
       </c>
-      <c r="K68" s="47" t="s">
+      <c r="K68" s="39" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="44" t="s">
         <v>1671</v>
       </c>
-      <c r="F69" s="47">
+      <c r="F69" s="39">
         <v>0.95</v>
       </c>
-      <c r="G69" s="47" t="s">
+      <c r="G69" s="39" t="s">
         <v>1868</v>
       </c>
-      <c r="J69" s="47">
+      <c r="J69" s="39">
         <v>0.99</v>
       </c>
-      <c r="K69" s="47" t="s">
+      <c r="K69" s="39" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="44" t="s">
         <v>1672</v>
       </c>
-      <c r="F70" s="47">
+      <c r="F70" s="39">
         <v>2.58</v>
       </c>
-      <c r="G70" s="47" t="s">
+      <c r="G70" s="39" t="s">
         <v>1869</v>
       </c>
-      <c r="J70" s="47">
+      <c r="J70" s="39">
         <v>0.82</v>
       </c>
-      <c r="K70" s="47" t="s">
+      <c r="K70" s="39" t="s">
         <v>1870</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="53" t="s">
+      <c r="A71" s="44" t="s">
         <v>1673</v>
       </c>
-      <c r="F71" s="47">
+      <c r="F71" s="39">
         <v>0.89</v>
       </c>
-      <c r="G71" s="47" t="s">
+      <c r="G71" s="39" t="s">
         <v>1871</v>
       </c>
-      <c r="J71" s="47">
+      <c r="J71" s="39">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K71" s="47" t="s">
+      <c r="K71" s="39" t="s">
         <v>1872</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="53" t="s">
+      <c r="A72" s="44" t="s">
         <v>1674</v>
       </c>
-      <c r="F72" s="47">
+      <c r="F72" s="39">
         <v>0.77</v>
       </c>
-      <c r="G72" s="47" t="s">
+      <c r="G72" s="39" t="s">
         <v>1873</v>
       </c>
-      <c r="J72" s="47">
+      <c r="J72" s="39">
         <v>0.81</v>
       </c>
-      <c r="K72" s="47" t="s">
+      <c r="K72" s="39" t="s">
         <v>1874</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="53" t="s">
+      <c r="A73" s="44" t="s">
         <v>1675</v>
       </c>
-      <c r="F73" s="47">
+      <c r="F73" s="39">
         <v>1.65</v>
       </c>
-      <c r="G73" s="47" t="s">
+      <c r="G73" s="39" t="s">
         <v>1875</v>
       </c>
-      <c r="J73" s="47">
+      <c r="J73" s="39">
         <v>1.27</v>
       </c>
-      <c r="K73" s="47" t="s">
+      <c r="K73" s="39" t="s">
         <v>1876</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="53" t="s">
+      <c r="A74" s="44" t="s">
         <v>1676</v>
       </c>
-      <c r="F74" s="47" t="s">
+      <c r="F74" s="39" t="s">
         <v>2118</v>
       </c>
-      <c r="G74" s="47" t="s">
+      <c r="G74" s="39" t="s">
         <v>1877</v>
       </c>
-      <c r="J74" s="47">
+      <c r="J74" s="39">
         <v>0.97</v>
       </c>
-      <c r="K74" s="47" t="s">
+      <c r="K74" s="39" t="s">
         <v>1878</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="44" t="s">
         <v>1677</v>
       </c>
-      <c r="F75" s="47">
+      <c r="F75" s="39">
         <v>1.06</v>
       </c>
-      <c r="G75" s="47" t="s">
+      <c r="G75" s="39" t="s">
         <v>1879</v>
       </c>
-      <c r="J75" s="47">
+      <c r="J75" s="39">
         <v>0.9</v>
       </c>
-      <c r="K75" s="47" t="s">
+      <c r="K75" s="39" t="s">
         <v>1880</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="53" t="s">
+      <c r="A76" s="44" t="s">
         <v>1678</v>
       </c>
-      <c r="F76" s="47" t="s">
+      <c r="F76" s="39" t="s">
         <v>2119</v>
       </c>
-      <c r="G76" s="47" t="s">
+      <c r="G76" s="39" t="s">
         <v>1881</v>
       </c>
-      <c r="J76" s="47" t="s">
+      <c r="J76" s="39" t="s">
         <v>2120</v>
       </c>
-      <c r="K76" s="47" t="s">
+      <c r="K76" s="39" t="s">
         <v>1882</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="53" t="s">
+      <c r="A77" s="44" t="s">
         <v>1679</v>
       </c>
-      <c r="F77" s="47" t="s">
+      <c r="F77" s="39" t="s">
         <v>2121</v>
       </c>
-      <c r="G77" s="47" t="s">
+      <c r="G77" s="39" t="s">
         <v>1883</v>
       </c>
-      <c r="J77" s="47" t="s">
+      <c r="J77" s="39" t="s">
         <v>2122</v>
       </c>
-      <c r="K77" s="47" t="s">
+      <c r="K77" s="39" t="s">
         <v>1884</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="53" t="s">
+      <c r="A78" s="44" t="s">
         <v>1680</v>
       </c>
-      <c r="F78" s="47">
+      <c r="F78" s="39">
         <v>0.91</v>
       </c>
-      <c r="G78" s="47" t="s">
+      <c r="G78" s="39" t="s">
         <v>1885</v>
       </c>
-      <c r="J78" s="47">
+      <c r="J78" s="39">
         <v>0.61</v>
       </c>
-      <c r="K78" s="47" t="s">
+      <c r="K78" s="39" t="s">
         <v>1886</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="53" t="s">
+      <c r="A79" s="44" t="s">
         <v>1681</v>
       </c>
-      <c r="H79" s="47" t="s">
+      <c r="H79" s="39" t="s">
         <v>2123</v>
       </c>
-      <c r="I79" s="47" t="s">
+      <c r="I79" s="39" t="s">
         <v>1887</v>
       </c>
-      <c r="J79" s="47" t="s">
+      <c r="J79" s="39" t="s">
         <v>2124</v>
       </c>
-      <c r="K79" s="47" t="s">
+      <c r="K79" s="39" t="s">
         <v>1888</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="53" t="s">
+      <c r="A80" s="44" t="s">
         <v>1682</v>
       </c>
-      <c r="H80" s="47" t="s">
+      <c r="H80" s="39" t="s">
         <v>2125</v>
       </c>
-      <c r="I80" s="47" t="s">
+      <c r="I80" s="39" t="s">
         <v>1889</v>
       </c>
-      <c r="J80" s="47" t="s">
+      <c r="J80" s="39" t="s">
         <v>2126</v>
       </c>
-      <c r="K80" s="47" t="s">
+      <c r="K80" s="39" t="s">
         <v>1890</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="53" t="s">
+      <c r="A81" s="44" t="s">
         <v>1683</v>
       </c>
-      <c r="H81" s="47" t="s">
+      <c r="H81" s="39" t="s">
         <v>2127</v>
       </c>
-      <c r="I81" s="47" t="s">
+      <c r="I81" s="39" t="s">
         <v>1891</v>
       </c>
-      <c r="J81" s="47" t="s">
+      <c r="J81" s="39" t="s">
         <v>2128</v>
       </c>
-      <c r="K81" s="47" t="s">
+      <c r="K81" s="39" t="s">
         <v>1892</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="53" t="s">
+      <c r="A82" s="44" t="s">
         <v>1684</v>
       </c>
-      <c r="H82" s="47" t="s">
+      <c r="H82" s="39" t="s">
         <v>2129</v>
       </c>
-      <c r="I82" s="47" t="s">
+      <c r="I82" s="39" t="s">
         <v>1893</v>
       </c>
-      <c r="J82" s="47" t="s">
+      <c r="J82" s="39" t="s">
         <v>2130</v>
       </c>
-      <c r="K82" s="47" t="s">
+      <c r="K82" s="39" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="53" t="s">
+      <c r="A83" s="44" t="s">
         <v>1685</v>
       </c>
-      <c r="H83" s="47" t="s">
+      <c r="H83" s="39" t="s">
         <v>2131</v>
       </c>
-      <c r="I83" s="47" t="s">
+      <c r="I83" s="39" t="s">
         <v>1895</v>
       </c>
-      <c r="J83" s="47" t="s">
+      <c r="J83" s="39" t="s">
         <v>2132</v>
       </c>
-      <c r="K83" s="47" t="s">
+      <c r="K83" s="39" t="s">
         <v>1896</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="51" t="s">
+      <c r="A85" s="42" t="s">
         <v>1649</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A86" s="46" t="s">
+      <c r="A86" s="38" t="s">
         <v>1897</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="55"/>
-      <c r="B88" s="50" t="s">
+      <c r="A88" s="46"/>
+      <c r="B88" s="56" t="s">
         <v>1537</v>
       </c>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50" t="s">
+      <c r="C88" s="56"/>
+      <c r="D88" s="56" t="s">
         <v>1538</v>
       </c>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50" t="s">
+      <c r="E88" s="56"/>
+      <c r="F88" s="56" t="s">
         <v>1539</v>
       </c>
-      <c r="G88" s="50"/>
-      <c r="H88" s="50" t="s">
+      <c r="G88" s="56"/>
+      <c r="H88" s="56" t="s">
         <v>1540</v>
       </c>
-      <c r="I88" s="50"/>
-      <c r="J88" s="50" t="s">
+      <c r="I88" s="56"/>
+      <c r="J88" s="56" t="s">
         <v>1541</v>
       </c>
-      <c r="K88" s="50"/>
+      <c r="K88" s="56"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="56"/>
-      <c r="B89" s="52" t="s">
+      <c r="A89" s="47"/>
+      <c r="B89" s="43" t="s">
         <v>1686</v>
       </c>
-      <c r="C89" s="52" t="s">
+      <c r="C89" s="43" t="s">
         <v>1422</v>
       </c>
-      <c r="D89" s="52" t="s">
+      <c r="D89" s="43" t="s">
         <v>1686</v>
       </c>
-      <c r="E89" s="52" t="s">
+      <c r="E89" s="43" t="s">
         <v>1422</v>
       </c>
-      <c r="F89" s="52" t="s">
+      <c r="F89" s="43" t="s">
         <v>1686</v>
       </c>
-      <c r="G89" s="52" t="s">
+      <c r="G89" s="43" t="s">
         <v>1422</v>
       </c>
-      <c r="H89" s="52" t="s">
+      <c r="H89" s="43" t="s">
         <v>1686</v>
       </c>
-      <c r="I89" s="52" t="s">
+      <c r="I89" s="43" t="s">
         <v>1422</v>
       </c>
-      <c r="J89" s="52" t="s">
+      <c r="J89" s="43" t="s">
         <v>1686</v>
       </c>
-      <c r="K89" s="52" t="s">
+      <c r="K89" s="43" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="48" t="s">
+      <c r="A90" s="40" t="s">
         <v>1650</v>
       </c>
-      <c r="B90" s="47">
+      <c r="B90" s="39">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C90" s="47" t="s">
+      <c r="C90" s="39" t="s">
         <v>1991</v>
       </c>
-      <c r="D90" s="47">
+      <c r="D90" s="39">
         <v>1.02</v>
       </c>
-      <c r="E90" s="47" t="s">
+      <c r="E90" s="39" t="s">
         <v>1992</v>
       </c>
-      <c r="F90" s="47">
+      <c r="F90" s="39">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G90" s="47" t="s">
+      <c r="G90" s="39" t="s">
         <v>1993</v>
       </c>
-      <c r="H90" s="47">
+      <c r="H90" s="39">
         <v>1.1499999999999999</v>
       </c>
-      <c r="I90" s="47" t="s">
+      <c r="I90" s="39" t="s">
         <v>1994</v>
       </c>
-      <c r="J90" s="47">
+      <c r="J90" s="39">
         <v>1.06</v>
       </c>
-      <c r="K90" s="47" t="s">
+      <c r="K90" s="39" t="s">
         <v>1995</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="48" t="s">
+      <c r="A91" s="40" t="s">
         <v>1651</v>
       </c>
-      <c r="B91" s="47">
+      <c r="B91" s="39">
         <v>1.45</v>
       </c>
-      <c r="C91" s="47" t="s">
+      <c r="C91" s="39" t="s">
         <v>1996</v>
       </c>
-      <c r="D91" s="47">
+      <c r="D91" s="39">
         <v>1.45</v>
       </c>
-      <c r="E91" s="47" t="s">
+      <c r="E91" s="39" t="s">
         <v>1997</v>
       </c>
-      <c r="F91" s="47">
+      <c r="F91" s="39">
         <v>1.47</v>
       </c>
-      <c r="G91" s="47" t="s">
+      <c r="G91" s="39" t="s">
         <v>1998</v>
       </c>
-      <c r="H91" s="47">
+      <c r="H91" s="39">
         <v>1.77</v>
       </c>
-      <c r="I91" s="47" t="s">
+      <c r="I91" s="39" t="s">
         <v>1999</v>
       </c>
-      <c r="J91" s="47">
+      <c r="J91" s="39">
         <v>1.8</v>
       </c>
-      <c r="K91" s="47" t="s">
+      <c r="K91" s="39" t="s">
         <v>2000</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="48" t="s">
+      <c r="A92" s="40" t="s">
         <v>1652</v>
       </c>
-      <c r="B92" s="47">
+      <c r="B92" s="39">
         <v>1.02</v>
       </c>
-      <c r="C92" s="47" t="s">
+      <c r="C92" s="39" t="s">
         <v>2001</v>
       </c>
-      <c r="D92" s="47">
+      <c r="D92" s="39">
         <v>0.99</v>
       </c>
-      <c r="E92" s="47" t="s">
+      <c r="E92" s="39" t="s">
         <v>2002</v>
       </c>
-      <c r="F92" s="47">
+      <c r="F92" s="39">
         <v>1</v>
       </c>
-      <c r="G92" s="47" t="s">
+      <c r="G92" s="39" t="s">
         <v>2003</v>
       </c>
-      <c r="H92" s="47">
+      <c r="H92" s="39">
         <v>0.99</v>
       </c>
-      <c r="I92" s="47" t="s">
+      <c r="I92" s="39" t="s">
         <v>2004</v>
       </c>
-      <c r="J92" s="47">
+      <c r="J92" s="39">
         <v>0.83</v>
       </c>
-      <c r="K92" s="47" t="s">
+      <c r="K92" s="39" t="s">
         <v>2005</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="48" t="s">
+      <c r="A93" s="40" t="s">
         <v>1653</v>
       </c>
-      <c r="B93" s="47">
+      <c r="B93" s="39">
         <v>0.89</v>
       </c>
-      <c r="C93" s="47" t="s">
+      <c r="C93" s="39" t="s">
         <v>2006</v>
       </c>
-      <c r="D93" s="47">
+      <c r="D93" s="39">
         <v>0.87</v>
       </c>
-      <c r="E93" s="47" t="s">
+      <c r="E93" s="39" t="s">
         <v>2007</v>
       </c>
-      <c r="F93" s="47">
+      <c r="F93" s="39">
         <v>0.86</v>
       </c>
-      <c r="G93" s="47" t="s">
+      <c r="G93" s="39" t="s">
         <v>2008</v>
       </c>
-      <c r="H93" s="47">
+      <c r="H93" s="39">
         <v>1.1299999999999999</v>
       </c>
-      <c r="I93" s="47" t="s">
+      <c r="I93" s="39" t="s">
         <v>2009</v>
       </c>
-      <c r="J93" s="47">
+      <c r="J93" s="39">
         <v>0.99</v>
       </c>
-      <c r="K93" s="47" t="s">
+      <c r="K93" s="39" t="s">
         <v>2010</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="48" t="s">
+      <c r="A94" s="40" t="s">
         <v>1654</v>
       </c>
-      <c r="B94" s="47">
+      <c r="B94" s="39">
         <v>0.98</v>
       </c>
-      <c r="C94" s="47" t="s">
+      <c r="C94" s="39" t="s">
         <v>2011</v>
       </c>
-      <c r="D94" s="47">
+      <c r="D94" s="39">
         <v>0.98</v>
       </c>
-      <c r="E94" s="47" t="s">
+      <c r="E94" s="39" t="s">
         <v>2012</v>
       </c>
-      <c r="F94" s="47">
+      <c r="F94" s="39">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G94" s="47" t="s">
+      <c r="G94" s="39" t="s">
         <v>2013</v>
       </c>
-      <c r="H94" s="47">
+      <c r="H94" s="39">
         <v>0.78</v>
       </c>
-      <c r="I94" s="47" t="s">
+      <c r="I94" s="39" t="s">
         <v>2014</v>
       </c>
-      <c r="J94" s="47">
+      <c r="J94" s="39">
         <v>0.92</v>
       </c>
-      <c r="K94" s="47" t="s">
+      <c r="K94" s="39" t="s">
         <v>2015</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="48" t="s">
+      <c r="A95" s="40" t="s">
         <v>1655</v>
       </c>
-      <c r="B95" s="47">
+      <c r="B95" s="39">
         <v>1.03</v>
       </c>
-      <c r="C95" s="47" t="s">
+      <c r="C95" s="39" t="s">
         <v>2016</v>
       </c>
-      <c r="D95" s="47">
+      <c r="D95" s="39">
         <v>0.98</v>
       </c>
-      <c r="E95" s="47" t="s">
+      <c r="E95" s="39" t="s">
         <v>2017</v>
       </c>
-      <c r="F95" s="47">
+      <c r="F95" s="39">
         <v>1.01</v>
       </c>
-      <c r="G95" s="47" t="s">
+      <c r="G95" s="39" t="s">
         <v>2018</v>
       </c>
-      <c r="H95" s="47">
+      <c r="H95" s="39">
         <v>0.74</v>
       </c>
-      <c r="I95" s="47" t="s">
+      <c r="I95" s="39" t="s">
         <v>2019</v>
       </c>
-      <c r="J95" s="47">
+      <c r="J95" s="39">
         <v>0.71</v>
       </c>
-      <c r="K95" s="47" t="s">
+      <c r="K95" s="39" t="s">
         <v>2020</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="48" t="s">
+      <c r="A96" s="40" t="s">
         <v>2021</v>
       </c>
-      <c r="D96" s="47">
+      <c r="D96" s="39">
         <v>0.8</v>
       </c>
-      <c r="E96" s="47" t="s">
+      <c r="E96" s="39" t="s">
         <v>2022</v>
       </c>
-      <c r="F96" s="47">
+      <c r="F96" s="39">
         <v>0.77</v>
       </c>
-      <c r="G96" s="47" t="s">
+      <c r="G96" s="39" t="s">
         <v>2023</v>
       </c>
-      <c r="H96" s="47">
+      <c r="H96" s="39">
         <v>0.82</v>
       </c>
-      <c r="I96" s="47" t="s">
+      <c r="I96" s="39" t="s">
         <v>2024</v>
       </c>
-      <c r="J96" s="47">
+      <c r="J96" s="39">
         <v>0.82</v>
       </c>
-      <c r="K96" s="47" t="s">
+      <c r="K96" s="39" t="s">
         <v>2025</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="48" t="s">
+      <c r="A97" s="40" t="s">
         <v>2026</v>
       </c>
-      <c r="D97" s="47">
+      <c r="D97" s="39">
         <v>1.05</v>
       </c>
-      <c r="E97" s="47" t="s">
+      <c r="E97" s="39" t="s">
         <v>2027</v>
       </c>
-      <c r="F97" s="47">
+      <c r="F97" s="39">
         <v>1.02</v>
       </c>
-      <c r="G97" s="47" t="s">
+      <c r="G97" s="39" t="s">
         <v>1843</v>
       </c>
-      <c r="H97" s="47">
+      <c r="H97" s="39">
         <v>1.22</v>
       </c>
-      <c r="I97" s="47" t="s">
+      <c r="I97" s="39" t="s">
         <v>2028</v>
       </c>
-      <c r="J97" s="47">
+      <c r="J97" s="39">
         <v>1.26</v>
       </c>
-      <c r="K97" s="47" t="s">
+      <c r="K97" s="39" t="s">
         <v>2029</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="48" t="s">
+      <c r="A98" s="40" t="s">
         <v>1662</v>
       </c>
-      <c r="D98" s="47">
+      <c r="D98" s="39">
         <v>1.29</v>
       </c>
-      <c r="E98" s="47" t="s">
+      <c r="E98" s="39" t="s">
         <v>2030</v>
       </c>
-      <c r="J98" s="47">
+      <c r="J98" s="39">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K98" s="47" t="s">
+      <c r="K98" s="39" t="s">
         <v>2031</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="48" t="s">
+      <c r="A99" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="47">
+      <c r="D99" s="39">
         <v>1.31</v>
       </c>
-      <c r="E99" s="47" t="s">
+      <c r="E99" s="39" t="s">
         <v>2032</v>
       </c>
-      <c r="J99" s="47">
+      <c r="J99" s="39">
         <v>1.42</v>
       </c>
-      <c r="K99" s="47" t="s">
+      <c r="K99" s="39" t="s">
         <v>2033</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="48" t="s">
+      <c r="A100" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D100" s="47">
+      <c r="D100" s="39">
         <v>0.94</v>
       </c>
-      <c r="E100" s="47" t="s">
+      <c r="E100" s="39" t="s">
         <v>2034</v>
       </c>
-      <c r="J100" s="47">
+      <c r="J100" s="39">
         <v>0.74</v>
       </c>
-      <c r="K100" s="47" t="s">
+      <c r="K100" s="39" t="s">
         <v>2035</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="48" t="s">
+      <c r="A101" s="40" t="s">
         <v>1663</v>
       </c>
-      <c r="D101" s="47">
+      <c r="D101" s="39">
         <v>0.94</v>
       </c>
-      <c r="E101" s="47" t="s">
+      <c r="E101" s="39" t="s">
         <v>2036</v>
       </c>
-      <c r="J101" s="47">
+      <c r="J101" s="39">
         <v>0.6</v>
       </c>
-      <c r="K101" s="47" t="s">
+      <c r="K101" s="39" t="s">
         <v>2037</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="48" t="s">
+      <c r="A102" s="40" t="s">
         <v>1664</v>
       </c>
-      <c r="D102" s="47">
+      <c r="D102" s="39">
         <v>1.32</v>
       </c>
-      <c r="E102" s="47" t="s">
+      <c r="E102" s="39" t="s">
         <v>2038</v>
       </c>
-      <c r="J102" s="47">
+      <c r="J102" s="39">
         <v>0.81</v>
       </c>
-      <c r="K102" s="47" t="s">
+      <c r="K102" s="39" t="s">
         <v>2039</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="48" t="s">
+      <c r="A103" s="40" t="s">
         <v>1665</v>
       </c>
-      <c r="D103" s="47" t="s">
+      <c r="D103" s="39" t="s">
         <v>2133</v>
       </c>
-      <c r="E103" s="47" t="s">
+      <c r="E103" s="39" t="s">
         <v>2040</v>
       </c>
-      <c r="J103" s="47">
+      <c r="J103" s="39">
         <v>1.37</v>
       </c>
-      <c r="K103" s="47" t="s">
+      <c r="K103" s="39" t="s">
         <v>2041</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="48" t="s">
+      <c r="A104" s="40" t="s">
         <v>1666</v>
       </c>
-      <c r="D104" s="47" t="s">
+      <c r="D104" s="39" t="s">
         <v>2134</v>
       </c>
-      <c r="E104" s="47" t="s">
+      <c r="E104" s="39" t="s">
         <v>2042</v>
       </c>
-      <c r="J104" s="47" t="s">
+      <c r="J104" s="39" t="s">
         <v>2135</v>
       </c>
-      <c r="K104" s="47" t="s">
+      <c r="K104" s="39" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="48" t="s">
+      <c r="A105" s="40" t="s">
         <v>1667</v>
       </c>
-      <c r="D105" s="47">
+      <c r="D105" s="39">
         <v>1.24</v>
       </c>
-      <c r="E105" s="47" t="s">
+      <c r="E105" s="39" t="s">
         <v>2044</v>
       </c>
-      <c r="J105" s="47">
+      <c r="J105" s="39">
         <v>1.47</v>
       </c>
-      <c r="K105" s="47" t="s">
+      <c r="K105" s="39" t="s">
         <v>2045</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="48" t="s">
+      <c r="A106" s="40" t="s">
         <v>1668</v>
       </c>
-      <c r="D106" s="47">
+      <c r="D106" s="39">
         <v>1.48</v>
       </c>
-      <c r="E106" s="47" t="s">
+      <c r="E106" s="39" t="s">
         <v>2046</v>
       </c>
-      <c r="J106" s="47">
+      <c r="J106" s="39">
         <v>1.1299999999999999</v>
       </c>
-      <c r="K106" s="47" t="s">
+      <c r="K106" s="39" t="s">
         <v>2047</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="48" t="s">
+      <c r="A107" s="40" t="s">
         <v>1669</v>
       </c>
-      <c r="F107" s="47">
+      <c r="F107" s="39">
         <v>1</v>
       </c>
-      <c r="G107" s="47" t="s">
+      <c r="G107" s="39" t="s">
         <v>1636</v>
       </c>
-      <c r="J107" s="47">
+      <c r="J107" s="39">
         <v>1.1100000000000001</v>
       </c>
-      <c r="K107" s="47" t="s">
+      <c r="K107" s="39" t="s">
         <v>2048</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="48" t="s">
+      <c r="A108" s="40" t="s">
         <v>1670</v>
       </c>
-      <c r="F108" s="47" t="s">
+      <c r="F108" s="39" t="s">
         <v>2136</v>
       </c>
-      <c r="G108" s="47" t="s">
+      <c r="G108" s="39" t="s">
         <v>2049</v>
       </c>
-      <c r="J108" s="47" t="s">
+      <c r="J108" s="39" t="s">
         <v>2137</v>
       </c>
-      <c r="K108" s="47" t="s">
+      <c r="K108" s="39" t="s">
         <v>2050</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="48" t="s">
+      <c r="A109" s="40" t="s">
         <v>1671</v>
       </c>
-      <c r="F109" s="47">
+      <c r="F109" s="39">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G109" s="47" t="s">
+      <c r="G109" s="39" t="s">
         <v>2051</v>
       </c>
-      <c r="J109" s="47">
+      <c r="J109" s="39">
         <v>1.26</v>
       </c>
-      <c r="K109" s="47" t="s">
+      <c r="K109" s="39" t="s">
         <v>2052</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="48" t="s">
+      <c r="A110" s="40" t="s">
         <v>1672</v>
       </c>
-      <c r="F110" s="47" t="s">
+      <c r="F110" s="39" t="s">
         <v>2138</v>
       </c>
-      <c r="G110" s="47" t="s">
+      <c r="G110" s="39" t="s">
         <v>2053</v>
       </c>
-      <c r="J110" s="47" t="s">
+      <c r="J110" s="39" t="s">
         <v>2139</v>
       </c>
-      <c r="K110" s="47" t="s">
+      <c r="K110" s="39" t="s">
         <v>2054</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="48" t="s">
+      <c r="A111" s="40" t="s">
         <v>1673</v>
       </c>
-      <c r="F111" s="47" t="s">
+      <c r="F111" s="39" t="s">
         <v>2140</v>
       </c>
-      <c r="G111" s="47" t="s">
+      <c r="G111" s="39" t="s">
         <v>2055</v>
       </c>
-      <c r="J111" s="47" t="s">
+      <c r="J111" s="39" t="s">
         <v>2141</v>
       </c>
-      <c r="K111" s="47" t="s">
+      <c r="K111" s="39" t="s">
         <v>2056</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="48" t="s">
+      <c r="A112" s="40" t="s">
         <v>1674</v>
       </c>
-      <c r="F112" s="47" t="s">
+      <c r="F112" s="39" t="s">
         <v>2142</v>
       </c>
-      <c r="G112" s="47" t="s">
+      <c r="G112" s="39" t="s">
         <v>2057</v>
       </c>
-      <c r="J112" s="47">
+      <c r="J112" s="39">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K112" s="47" t="s">
+      <c r="K112" s="39" t="s">
         <v>2058</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="48" t="s">
+      <c r="A113" s="40" t="s">
         <v>1675</v>
       </c>
-      <c r="F113" s="47" t="s">
+      <c r="F113" s="39" t="s">
         <v>2143</v>
       </c>
-      <c r="G113" s="47" t="s">
+      <c r="G113" s="39" t="s">
         <v>2059</v>
       </c>
-      <c r="J113" s="47" t="s">
+      <c r="J113" s="39" t="s">
         <v>2144</v>
       </c>
-      <c r="K113" s="47" t="s">
+      <c r="K113" s="39" t="s">
         <v>2060</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="48" t="s">
+      <c r="A114" s="40" t="s">
         <v>1676</v>
       </c>
-      <c r="F114" s="47">
+      <c r="F114" s="39">
         <v>0.92</v>
       </c>
-      <c r="G114" s="47" t="s">
+      <c r="G114" s="39" t="s">
         <v>2061</v>
       </c>
-      <c r="J114" s="47">
+      <c r="J114" s="39">
         <v>1.04</v>
       </c>
-      <c r="K114" s="47" t="s">
+      <c r="K114" s="39" t="s">
         <v>2062</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="48" t="s">
+      <c r="A115" s="40" t="s">
         <v>1677</v>
       </c>
-      <c r="F115" s="47">
+      <c r="F115" s="39">
         <v>0.71</v>
       </c>
-      <c r="G115" s="47" t="s">
+      <c r="G115" s="39" t="s">
         <v>2063</v>
       </c>
-      <c r="J115" s="47">
+      <c r="J115" s="39">
         <v>0.73</v>
       </c>
-      <c r="K115" s="47" t="s">
+      <c r="K115" s="39" t="s">
         <v>2064</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="48" t="s">
+      <c r="A116" s="40" t="s">
         <v>1678</v>
       </c>
-      <c r="F116" s="47" t="s">
+      <c r="F116" s="39" t="s">
         <v>2145</v>
       </c>
-      <c r="G116" s="47" t="s">
+      <c r="G116" s="39" t="s">
         <v>2065</v>
       </c>
-      <c r="J116" s="47">
+      <c r="J116" s="39">
         <v>1.61</v>
       </c>
-      <c r="K116" s="47" t="s">
+      <c r="K116" s="39" t="s">
         <v>2066</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="48" t="s">
+      <c r="A117" s="40" t="s">
         <v>1679</v>
       </c>
-      <c r="F117" s="47" t="s">
+      <c r="F117" s="39" t="s">
         <v>2110</v>
       </c>
-      <c r="G117" s="47" t="s">
+      <c r="G117" s="39" t="s">
         <v>2067</v>
       </c>
-      <c r="J117" s="47" t="s">
+      <c r="J117" s="39" t="s">
         <v>2146</v>
       </c>
-      <c r="K117" s="47" t="s">
+      <c r="K117" s="39" t="s">
         <v>2068</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="48" t="s">
+      <c r="A118" s="40" t="s">
         <v>1680</v>
       </c>
-      <c r="F118" s="47">
+      <c r="F118" s="39">
         <v>1.02</v>
       </c>
-      <c r="G118" s="47" t="s">
+      <c r="G118" s="39" t="s">
         <v>2069</v>
       </c>
-      <c r="J118" s="47">
+      <c r="J118" s="39">
         <v>1.1100000000000001</v>
       </c>
-      <c r="K118" s="47" t="s">
+      <c r="K118" s="39" t="s">
         <v>2070</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="48" t="s">
+      <c r="A119" s="40" t="s">
         <v>1681</v>
       </c>
-      <c r="H119" s="47" t="s">
+      <c r="H119" s="39" t="s">
         <v>2147</v>
       </c>
-      <c r="I119" s="47" t="s">
+      <c r="I119" s="39" t="s">
         <v>2071</v>
       </c>
-      <c r="J119" s="47" t="s">
+      <c r="J119" s="39" t="s">
         <v>2148</v>
       </c>
-      <c r="K119" s="47" t="s">
+      <c r="K119" s="39" t="s">
         <v>2072</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="48" t="s">
+      <c r="A120" s="40" t="s">
         <v>1682</v>
       </c>
-      <c r="H120" s="47">
+      <c r="H120" s="39">
         <v>1.6</v>
       </c>
-      <c r="I120" s="47" t="s">
+      <c r="I120" s="39" t="s">
         <v>2073</v>
       </c>
-      <c r="J120" s="47">
+      <c r="J120" s="39">
         <v>1.57</v>
       </c>
-      <c r="K120" s="47" t="s">
+      <c r="K120" s="39" t="s">
         <v>2074</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="48" t="s">
+      <c r="A121" s="40" t="s">
         <v>1683</v>
       </c>
-      <c r="H121" s="47" t="s">
+      <c r="H121" s="39" t="s">
         <v>2149</v>
       </c>
-      <c r="I121" s="47" t="s">
+      <c r="I121" s="39" t="s">
         <v>2075</v>
       </c>
-      <c r="J121" s="47" t="s">
+      <c r="J121" s="39" t="s">
         <v>2150</v>
       </c>
-      <c r="K121" s="47" t="s">
+      <c r="K121" s="39" t="s">
         <v>2076</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="48" t="s">
+      <c r="A122" s="40" t="s">
         <v>1684</v>
       </c>
-      <c r="H122" s="47">
+      <c r="H122" s="39">
         <v>1.3</v>
       </c>
-      <c r="I122" s="47" t="s">
+      <c r="I122" s="39" t="s">
         <v>2077</v>
       </c>
-      <c r="J122" s="47">
+      <c r="J122" s="39">
         <v>1.26</v>
       </c>
-      <c r="K122" s="47" t="s">
+      <c r="K122" s="39" t="s">
         <v>2029</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="48" t="s">
+      <c r="A123" s="40" t="s">
         <v>1685</v>
       </c>
-      <c r="H123" s="47" t="s">
+      <c r="H123" s="39" t="s">
         <v>2151</v>
       </c>
-      <c r="I123" s="47" t="s">
+      <c r="I123" s="39" t="s">
         <v>2078</v>
       </c>
-      <c r="J123" s="47" t="s">
+      <c r="J123" s="39" t="s">
         <v>2152</v>
       </c>
-      <c r="K123" s="47" t="s">
+      <c r="K123" s="39" t="s">
         <v>2079</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="56" t="s">
+      <c r="A124" s="47" t="s">
         <v>1649</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="B88:C88"/>
     <mergeCell ref="D88:E88"/>
     <mergeCell ref="F88:G88"/>
     <mergeCell ref="H88:I88"/>
     <mergeCell ref="J88:K88"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2C5D59-08CF-9A4D-86CE-A84AF9D155A0}">
+  <dimension ref="A1:M45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:M45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="73" customWidth="1"/>
+    <col min="5" max="5" width="23" style="73" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="69" t="s">
+        <v>2163</v>
+      </c>
+      <c r="E1" s="69"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="63" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="64" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B4" s="65">
+        <v>109</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="71" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="64" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B5" s="65">
+        <v>343</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="71" t="s">
+        <v>2197</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="64" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B6" s="65">
+        <v>110</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="71" t="s">
+        <v>2198</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="64" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B7" s="65">
+        <v>137</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="71" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="64" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B8" s="65">
+        <v>140</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="71" t="s">
+        <v>2200</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="64" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B9" s="65">
+        <v>274</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="71" t="s">
+        <v>2201</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="64" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B10" s="65">
+        <v>85</v>
+      </c>
+      <c r="C10" s="65"/>
+      <c r="D10" s="71" t="s">
+        <v>2202</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="64" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B11" s="65">
+        <v>201</v>
+      </c>
+      <c r="C11" s="65"/>
+      <c r="D11" s="71" t="s">
+        <v>2203</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="64" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B12" s="65">
+        <v>79</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="71" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="63" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="64" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B14" s="65">
+        <v>23</v>
+      </c>
+      <c r="C14" s="65">
+        <v>23</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="66" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B15" s="67">
+        <v>2</v>
+      </c>
+      <c r="C15" s="65">
+        <v>73</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="64" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B16" s="65">
+        <v>73</v>
+      </c>
+      <c r="C16" s="65">
+        <v>416</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>2195</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="64" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B17" s="65">
+        <v>416</v>
+      </c>
+      <c r="C17" s="65">
+        <v>158</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="64" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B18" s="65">
+        <v>156</v>
+      </c>
+      <c r="C18" s="65">
+        <v>355</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="64" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B19" s="65">
+        <v>355</v>
+      </c>
+      <c r="C19" s="65">
+        <v>129</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="64" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B20" s="65">
+        <v>129</v>
+      </c>
+      <c r="C20" s="65">
+        <v>180</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E20" s="71" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="64" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B21" s="65">
+        <v>180</v>
+      </c>
+      <c r="C21" s="65">
+        <v>144</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E21" s="71" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="64" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B22" s="65">
+        <v>144</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="63" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B23" s="61"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="64" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B24" s="65">
+        <v>432</v>
+      </c>
+      <c r="C24" s="65">
+        <v>432</v>
+      </c>
+      <c r="D24" s="71" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E24" s="71" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="H24" s="58"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="64" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B25" s="65">
+        <v>40</v>
+      </c>
+      <c r="C25" s="65">
+        <v>40</v>
+      </c>
+      <c r="D25" s="71" t="s">
+        <v>2166</v>
+      </c>
+      <c r="E25" s="71" t="s">
+        <v>2173</v>
+      </c>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="58"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="64" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B26" s="65">
+        <v>174</v>
+      </c>
+      <c r="C26" s="65">
+        <v>180</v>
+      </c>
+      <c r="D26" s="71" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E26" s="71" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="64" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B27" s="65">
+        <v>371</v>
+      </c>
+      <c r="C27" s="68">
+        <v>375</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E27" s="71" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="66" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B28" s="67">
+        <v>11</v>
+      </c>
+      <c r="C28" s="65">
+        <v>159</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E28" s="71" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="64" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B29" s="65">
+        <v>158</v>
+      </c>
+      <c r="C29" s="65">
+        <v>176</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E29" s="71" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="64" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B30" s="65">
+        <v>176</v>
+      </c>
+      <c r="C30" s="65">
+        <v>116</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E30" s="71" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="64" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B31" s="65">
+        <v>116</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="59"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="74"/>
+      <c r="B35" s="75" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="78" t="s">
+        <v>2226</v>
+      </c>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78" t="s">
+        <v>2227</v>
+      </c>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="76"/>
+      <c r="B36" s="79" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C36" s="79" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D36" s="80">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E36" s="80">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F36" s="79" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G36" s="79" t="s">
+        <v>2216</v>
+      </c>
+      <c r="H36" s="80">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I36" s="80">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J36" s="79" t="s">
+        <v>2215</v>
+      </c>
+      <c r="K36" s="79" t="s">
+        <v>2216</v>
+      </c>
+      <c r="L36" s="80">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M36" s="80">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="77" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B37" s="83">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C37" s="83">
+        <v>0.02</v>
+      </c>
+      <c r="D37" s="83">
+        <v>0.04</v>
+      </c>
+      <c r="E37" s="83">
+        <v>0.12</v>
+      </c>
+      <c r="F37" s="81">
+        <v>4.2882099999999999E-2</v>
+      </c>
+      <c r="G37" s="81">
+        <v>2.6790100000000001E-2</v>
+      </c>
+      <c r="H37" s="81">
+        <v>1.1445200000000001E-2</v>
+      </c>
+      <c r="I37" s="81">
+        <v>0.113418</v>
+      </c>
+      <c r="J37" s="81">
+        <v>0.28061570000000002</v>
+      </c>
+      <c r="K37" s="81">
+        <v>1.39065E-2</v>
+      </c>
+      <c r="L37" s="81">
+        <v>0.2518628</v>
+      </c>
+      <c r="M37" s="81">
+        <v>0.3068842</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="77" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B38" s="83">
+        <v>0.21</v>
+      </c>
+      <c r="C38" s="83">
+        <v>0.03</v>
+      </c>
+      <c r="D38" s="83">
+        <v>0.16</v>
+      </c>
+      <c r="E38" s="83">
+        <v>0.26</v>
+      </c>
+      <c r="F38" s="81">
+        <v>3.6737100000000002E-2</v>
+      </c>
+      <c r="G38" s="81">
+        <v>4.5754200000000002E-2</v>
+      </c>
+      <c r="H38" s="81">
+        <v>0</v>
+      </c>
+      <c r="I38" s="81">
+        <v>0.12583569999999999</v>
+      </c>
+      <c r="J38" s="81">
+        <v>3.5465000000000003E-2</v>
+      </c>
+      <c r="K38" s="81">
+        <v>1.7442099999999999E-2</v>
+      </c>
+      <c r="L38" s="81">
+        <v>0</v>
+      </c>
+      <c r="M38" s="81">
+        <v>6.3335699999999995E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="77" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B39" s="83">
+        <v>0.08</v>
+      </c>
+      <c r="C39" s="83">
+        <v>0.02</v>
+      </c>
+      <c r="D39" s="83">
+        <v>0.04</v>
+      </c>
+      <c r="E39" s="83">
+        <v>0.12</v>
+      </c>
+      <c r="F39" s="81">
+        <v>5.2096499999999997E-2</v>
+      </c>
+      <c r="G39" s="81">
+        <v>1.4714E-2</v>
+      </c>
+      <c r="H39" s="81">
+        <v>3.0795900000000001E-2</v>
+      </c>
+      <c r="I39" s="81">
+        <v>8.6956199999999997E-2</v>
+      </c>
+      <c r="J39" s="81">
+        <v>0.112432</v>
+      </c>
+      <c r="K39" s="81">
+        <v>1.3998099999999999E-2</v>
+      </c>
+      <c r="L39" s="81">
+        <v>8.3698700000000001E-2</v>
+      </c>
+      <c r="M39" s="81">
+        <v>0.13912140000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="77" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B40" s="83">
+        <v>0.11</v>
+      </c>
+      <c r="C40" s="83">
+        <v>0.03</v>
+      </c>
+      <c r="D40" s="83">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E40" s="83">
+        <v>0.16</v>
+      </c>
+      <c r="F40" s="81">
+        <v>0.25400610000000001</v>
+      </c>
+      <c r="G40" s="81">
+        <v>2.2303799999999999E-2</v>
+      </c>
+      <c r="H40" s="81">
+        <v>0.20742070000000001</v>
+      </c>
+      <c r="I40" s="81">
+        <v>0.29171819999999998</v>
+      </c>
+      <c r="J40" s="81">
+        <v>0.2482094</v>
+      </c>
+      <c r="K40" s="81">
+        <v>1.6787199999999999E-2</v>
+      </c>
+      <c r="L40" s="81">
+        <v>0.21437729999999999</v>
+      </c>
+      <c r="M40" s="81">
+        <v>0.28151140000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="77" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B41" s="83">
+        <v>0.08</v>
+      </c>
+      <c r="C41" s="83">
+        <v>0.01</v>
+      </c>
+      <c r="D41" s="83">
+        <v>0.06</v>
+      </c>
+      <c r="E41" s="83">
+        <v>0.12</v>
+      </c>
+      <c r="F41" s="81">
+        <v>9.3584899999999999E-2</v>
+      </c>
+      <c r="G41" s="81">
+        <v>1.8671799999999999E-2</v>
+      </c>
+      <c r="H41" s="81">
+        <v>5.9616500000000003E-2</v>
+      </c>
+      <c r="I41" s="81">
+        <v>0.13193479999999999</v>
+      </c>
+      <c r="J41" s="81">
+        <v>1.17289E-2</v>
+      </c>
+      <c r="K41" s="81">
+        <v>1.0534399999999999E-2</v>
+      </c>
+      <c r="L41" s="81">
+        <v>0</v>
+      </c>
+      <c r="M41" s="81">
+        <v>3.5634699999999998E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="77" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B42" s="83">
+        <v>0.17</v>
+      </c>
+      <c r="C42" s="83">
+        <v>0.02</v>
+      </c>
+      <c r="D42" s="83">
+        <v>0.12</v>
+      </c>
+      <c r="E42" s="83">
+        <v>0.21</v>
+      </c>
+      <c r="F42" s="81">
+        <v>0.2103892</v>
+      </c>
+      <c r="G42" s="81">
+        <v>3.6454E-2</v>
+      </c>
+      <c r="H42" s="81">
+        <v>0.1439822</v>
+      </c>
+      <c r="I42" s="81">
+        <v>0.27438089999999998</v>
+      </c>
+      <c r="J42" s="81">
+        <v>0.10942639999999999</v>
+      </c>
+      <c r="K42" s="81">
+        <v>1.55569E-2</v>
+      </c>
+      <c r="L42" s="81">
+        <v>8.2426799999999995E-2</v>
+      </c>
+      <c r="M42" s="81">
+        <v>0.14514679999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="77" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B43" s="83">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C43" s="83">
+        <v>0.02</v>
+      </c>
+      <c r="D43" s="83">
+        <v>0.04</v>
+      </c>
+      <c r="E43" s="83">
+        <v>0.11</v>
+      </c>
+      <c r="F43" s="81">
+        <v>9.2102500000000004E-2</v>
+      </c>
+      <c r="G43" s="81">
+        <v>1.81061E-2</v>
+      </c>
+      <c r="H43" s="81">
+        <v>5.5313399999999999E-2</v>
+      </c>
+      <c r="I43" s="81">
+        <v>0.12728030000000001</v>
+      </c>
+      <c r="J43" s="81">
+        <v>0.11549</v>
+      </c>
+      <c r="K43" s="81">
+        <v>1.35443E-2</v>
+      </c>
+      <c r="L43" s="81">
+        <v>8.9249200000000001E-2</v>
+      </c>
+      <c r="M43" s="81">
+        <v>0.1433546</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="77" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B44" s="83">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C44" s="83">
+        <v>0.01</v>
+      </c>
+      <c r="D44" s="83">
+        <v>0.11</v>
+      </c>
+      <c r="E44" s="83">
+        <v>0.16</v>
+      </c>
+      <c r="F44" s="81">
+        <v>0.1230779</v>
+      </c>
+      <c r="G44" s="81">
+        <v>1.3380700000000001E-2</v>
+      </c>
+      <c r="H44" s="81">
+        <v>0.100193</v>
+      </c>
+      <c r="I44" s="81">
+        <v>0.14971319999999999</v>
+      </c>
+      <c r="J44" s="81">
+        <v>8.6632600000000004E-2</v>
+      </c>
+      <c r="K44" s="81">
+        <v>1.3463900000000001E-2</v>
+      </c>
+      <c r="L44" s="81">
+        <v>6.2388600000000002E-2</v>
+      </c>
+      <c r="M44" s="81">
+        <v>0.11551930000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="77" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B45" s="83">
+        <v>0.06</v>
+      </c>
+      <c r="C45" s="83">
+        <v>0.02</v>
+      </c>
+      <c r="D45" s="83">
+        <v>0.03</v>
+      </c>
+      <c r="E45" s="83">
+        <v>0.09</v>
+      </c>
+      <c r="F45" s="81">
+        <v>9.5123700000000005E-2</v>
+      </c>
+      <c r="G45" s="81">
+        <v>1.6040700000000001E-2</v>
+      </c>
+      <c r="H45" s="81">
+        <v>6.6988699999999998E-2</v>
+      </c>
+      <c r="I45" s="81">
+        <v>0.12983149999999999</v>
+      </c>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:M35"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tables_Other/Tables_Models.xlsx
+++ b/Tables_Other/Tables_Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carmenrodriguez/Desktop/Research Projects/BayesBinMix/ecbayesbinmix/Tables_Other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA17B990-0146-E64E-B492-9F3838058CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDCA87E-BDB5-3640-9634-04D2BFF3B71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="35540" windowHeight="21100" activeTab="13" xr2:uid="{3C93BFA3-DCF0-6A4C-BE1A-7CEC319431AB}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="35540" windowHeight="21100" activeTab="14" xr2:uid="{3C93BFA3-DCF0-6A4C-BE1A-7CEC319431AB}"/>
   </bookViews>
   <sheets>
     <sheet name="old version" sheetId="1" state="hidden" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="combined" sheetId="13" r:id="rId12"/>
     <sheet name="combined (2)" sheetId="14" r:id="rId13"/>
     <sheet name="Sheet2" sheetId="15" r:id="rId14"/>
+    <sheet name="Other tables" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -12352,7 +12353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -12654,6 +12655,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -12680,14 +12728,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -12708,25 +12760,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12738,53 +12781,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="41" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13108,16 +13106,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="115"/>
+    <col min="1" max="1" width="10.83203125" style="132"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="115"/>
+    <col min="6" max="6" width="10.83203125" style="132"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="17" thickTop="1">
-      <c r="B1" s="113"/>
+      <c r="B1" s="130"/>
       <c r="C1" s="1" t="s">
         <v>240</v>
       </c>
@@ -13129,7 +13127,7 @@
       </c>
     </row>
     <row r="2" spans="2:5" ht="17" thickBot="1">
-      <c r="B2" s="114"/>
+      <c r="B2" s="131"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -15536,10 +15534,10 @@
       <c r="A1" s="31"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="146" t="s">
         <v>804</v>
       </c>
-      <c r="E1" s="127"/>
+      <c r="E1" s="146"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="31"/>
@@ -16004,24 +16002,24 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="40"/>
-      <c r="B35" s="128" t="s">
+      <c r="B35" s="147" t="s">
         <v>855</v>
       </c>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="129" t="s">
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="148" t="s">
         <v>867</v>
       </c>
-      <c r="G35" s="129"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="129" t="s">
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148" t="s">
         <v>868</v>
       </c>
-      <c r="K35" s="129"/>
-      <c r="L35" s="129"/>
-      <c r="M35" s="129"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="41"/>
@@ -16424,12 +16422,12 @@
       <c r="M45" s="46"/>
     </row>
     <row r="48" spans="1:13" ht="32" customHeight="1">
-      <c r="A48" s="130" t="s">
+      <c r="A48" s="149" t="s">
         <v>874</v>
       </c>
-      <c r="B48" s="131"/>
-      <c r="C48" s="131"/>
-      <c r="D48" s="132"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="151"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="56" t="s">
@@ -16474,12 +16472,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="32" customHeight="1">
-      <c r="A54" s="126" t="s">
+      <c r="A54" s="145" t="s">
         <v>875</v>
       </c>
-      <c r="B54" s="126"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
+      <c r="B54" s="145"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="145"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="56" t="s">
@@ -16676,12 +16674,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="113" t="s">
         <v>2978</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
-      <c r="L2" s="134" t="s">
+      <c r="L2" s="113" t="s">
         <v>2979</v>
       </c>
       <c r="M2" s="54"/>
@@ -16689,31 +16687,31 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="105"/>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="134" t="s">
         <v>2875</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117" t="s">
+      <c r="C3" s="134"/>
+      <c r="D3" s="134" t="s">
         <v>2876</v>
       </c>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117" t="s">
+      <c r="E3" s="134"/>
+      <c r="F3" s="134" t="s">
         <v>2877</v>
       </c>
-      <c r="G3" s="117"/>
+      <c r="G3" s="134"/>
       <c r="L3" s="105"/>
-      <c r="M3" s="117" t="s">
+      <c r="M3" s="134" t="s">
         <v>2875</v>
       </c>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117" t="s">
+      <c r="N3" s="134"/>
+      <c r="O3" s="134" t="s">
         <v>2876</v>
       </c>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117" t="s">
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134" t="s">
         <v>2877</v>
       </c>
-      <c r="R3" s="117"/>
+      <c r="R3" s="134"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="105"/>
@@ -16756,27 +16754,27 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="114" t="s">
         <v>2874</v>
       </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="L5" s="147" t="s">
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="L5" s="121" t="s">
         <v>2980</v>
       </c>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="148"/>
-      <c r="P5" s="148"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="117" t="s">
         <v>794</v>
       </c>
       <c r="B6" s="100">
@@ -16785,32 +16783,32 @@
       <c r="C6" s="100" t="s">
         <v>3016</v>
       </c>
-      <c r="D6" s="137">
+      <c r="D6" s="116">
         <v>1.18</v>
       </c>
-      <c r="E6" s="137" t="s">
+      <c r="E6" s="116" t="s">
         <v>2883</v>
       </c>
-      <c r="F6" s="137">
+      <c r="F6" s="116">
         <v>0.72</v>
       </c>
-      <c r="G6" s="137" t="s">
+      <c r="G6" s="116" t="s">
         <v>661</v>
       </c>
-      <c r="L6" s="143" t="s">
+      <c r="L6" s="119" t="s">
         <v>2928</v>
       </c>
-      <c r="M6" s="151" t="s">
+      <c r="M6" s="152" t="s">
         <v>2879</v>
       </c>
-      <c r="N6" s="151"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
+      <c r="N6" s="152"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="117" t="s">
         <v>795</v>
       </c>
       <c r="B7" s="100">
@@ -16819,34 +16817,34 @@
       <c r="C7" s="100" t="s">
         <v>3018</v>
       </c>
-      <c r="D7" s="137">
+      <c r="D7" s="116">
         <v>1.35</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="116" t="s">
         <v>2886</v>
       </c>
-      <c r="F7" s="137">
+      <c r="F7" s="116">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G7" s="137" t="s">
+      <c r="G7" s="116" t="s">
         <v>2770</v>
       </c>
-      <c r="L7" s="143" t="s">
+      <c r="L7" s="119" t="s">
         <v>2929</v>
       </c>
-      <c r="M7" s="144">
+      <c r="M7" s="120">
         <v>0.93700000000000006</v>
       </c>
-      <c r="N7" s="144" t="s">
+      <c r="N7" s="120" t="s">
         <v>2981</v>
       </c>
-      <c r="O7" s="144"/>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="144"/>
-      <c r="R7" s="144"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="117" t="s">
         <v>796</v>
       </c>
       <c r="B8" s="100">
@@ -16855,34 +16853,34 @@
       <c r="C8" s="100" t="s">
         <v>3020</v>
       </c>
-      <c r="D8" s="137">
+      <c r="D8" s="116">
         <v>1.47</v>
       </c>
-      <c r="E8" s="137" t="s">
+      <c r="E8" s="116" t="s">
         <v>2890</v>
       </c>
-      <c r="F8" s="137">
+      <c r="F8" s="116">
         <v>0.95</v>
       </c>
-      <c r="G8" s="137" t="s">
+      <c r="G8" s="116" t="s">
         <v>2775</v>
       </c>
-      <c r="L8" s="143" t="s">
+      <c r="L8" s="119" t="s">
         <v>2930</v>
       </c>
-      <c r="M8" s="144">
+      <c r="M8" s="120">
         <v>0.88500000000000001</v>
       </c>
-      <c r="N8" s="144" t="s">
+      <c r="N8" s="120" t="s">
         <v>2982</v>
       </c>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="144"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
     </row>
     <row r="9" spans="1:18" ht="18">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="117" t="s">
         <v>797</v>
       </c>
       <c r="B9" s="100" t="s">
@@ -16891,30 +16889,30 @@
       <c r="C9" s="100" t="s">
         <v>3023</v>
       </c>
-      <c r="D9" s="137">
+      <c r="D9" s="116">
         <v>0.89</v>
       </c>
-      <c r="E9" s="137" t="s">
+      <c r="E9" s="116" t="s">
         <v>464</v>
       </c>
-      <c r="F9" s="140"/>
-      <c r="G9" s="141"/>
-      <c r="L9" s="143" t="s">
+      <c r="F9" s="156"/>
+      <c r="G9" s="157"/>
+      <c r="L9" s="119" t="s">
         <v>2931</v>
       </c>
-      <c r="M9" s="144">
+      <c r="M9" s="120">
         <v>1.052</v>
       </c>
-      <c r="N9" s="144" t="s">
+      <c r="N9" s="120" t="s">
         <v>2983</v>
       </c>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="145"/>
-      <c r="R9" s="146"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="154"/>
+      <c r="R9" s="155"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="117" t="s">
         <v>798</v>
       </c>
       <c r="B10" s="100">
@@ -16923,48 +16921,48 @@
       <c r="C10" s="100" t="s">
         <v>2686</v>
       </c>
-      <c r="D10" s="137">
+      <c r="D10" s="116">
         <v>1.4</v>
       </c>
-      <c r="E10" s="137" t="s">
+      <c r="E10" s="116" t="s">
         <v>2896</v>
       </c>
-      <c r="F10" s="137">
+      <c r="F10" s="116">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="116" t="s">
         <v>2780</v>
       </c>
-      <c r="L10" s="143" t="s">
+      <c r="L10" s="119" t="s">
         <v>2932</v>
       </c>
-      <c r="M10" s="144">
+      <c r="M10" s="120">
         <v>1.2030000000000001</v>
       </c>
-      <c r="N10" s="144" t="s">
+      <c r="N10" s="120" t="s">
         <v>2984</v>
       </c>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="117" t="s">
         <v>799</v>
       </c>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="158" t="s">
         <v>2879</v>
       </c>
-      <c r="C11" s="142"/>
-      <c r="D11" s="142" t="s">
+      <c r="C11" s="158"/>
+      <c r="D11" s="158" t="s">
         <v>2879</v>
       </c>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142" t="s">
+      <c r="E11" s="158"/>
+      <c r="F11" s="158" t="s">
         <v>2879</v>
       </c>
-      <c r="G11" s="142"/>
+      <c r="G11" s="158"/>
       <c r="L11" s="101" t="s">
         <v>5</v>
       </c>
@@ -16976,7 +16974,7 @@
       <c r="R11" s="59"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="117" t="s">
         <v>800</v>
       </c>
       <c r="B12" s="100">
@@ -16985,30 +16983,30 @@
       <c r="C12" s="100" t="s">
         <v>3026</v>
       </c>
-      <c r="D12" s="137">
+      <c r="D12" s="116">
         <v>0.73</v>
       </c>
-      <c r="E12" s="137" t="s">
+      <c r="E12" s="116" t="s">
         <v>2900</v>
       </c>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
       <c r="L12" s="106" t="s">
         <v>340</v>
       </c>
-      <c r="M12" s="119" t="s">
+      <c r="M12" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119" t="s">
+      <c r="N12" s="136"/>
+      <c r="O12" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="P12" s="119"/>
+      <c r="P12" s="136"/>
       <c r="Q12" s="59"/>
       <c r="R12" s="59"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="117" t="s">
         <v>801</v>
       </c>
       <c r="B13" s="100">
@@ -17017,16 +17015,16 @@
       <c r="C13" s="100" t="s">
         <v>3028</v>
       </c>
-      <c r="D13" s="137">
+      <c r="D13" s="116">
         <v>1.06</v>
       </c>
-      <c r="E13" s="137" t="s">
+      <c r="E13" s="116" t="s">
         <v>2904</v>
       </c>
-      <c r="F13" s="137">
+      <c r="F13" s="116">
         <v>0.78</v>
       </c>
-      <c r="G13" s="137" t="s">
+      <c r="G13" s="116" t="s">
         <v>2783</v>
       </c>
       <c r="L13" s="106" t="s">
@@ -17044,7 +17042,7 @@
       <c r="R13" s="97"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="117" t="s">
         <v>802</v>
       </c>
       <c r="B14" s="100">
@@ -17053,10 +17051,10 @@
       <c r="C14" s="100" t="s">
         <v>3030</v>
       </c>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
       <c r="L14" s="106" t="s">
         <v>10</v>
       </c>
@@ -17099,14 +17097,14 @@
       <c r="A16" s="106" t="s">
         <v>340</v>
       </c>
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119" t="s">
+      <c r="C16" s="136"/>
+      <c r="D16" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="E16" s="119"/>
+      <c r="E16" s="136"/>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
       <c r="L16" s="101" t="s">
@@ -17144,14 +17142,14 @@
       <c r="L17" s="106" t="s">
         <v>343</v>
       </c>
-      <c r="M17" s="119" t="s">
+      <c r="M17" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119" t="s">
+      <c r="N17" s="136"/>
+      <c r="O17" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="P17" s="119"/>
+      <c r="P17" s="136"/>
       <c r="Q17" s="59"/>
       <c r="R17" s="59"/>
     </row>
@@ -17251,14 +17249,14 @@
       <c r="A21" s="106" t="s">
         <v>343</v>
       </c>
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119" t="s">
+      <c r="C21" s="136"/>
+      <c r="D21" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="E21" s="119"/>
+      <c r="E21" s="136"/>
       <c r="F21" s="59"/>
       <c r="G21" s="59"/>
       <c r="L21" s="101" t="s">
@@ -17296,14 +17294,14 @@
       <c r="L22" s="106" t="s">
         <v>354</v>
       </c>
-      <c r="M22" s="119" t="s">
+      <c r="M22" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119" t="s">
+      <c r="N22" s="136"/>
+      <c r="O22" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="P22" s="119"/>
+      <c r="P22" s="136"/>
       <c r="Q22" s="59"/>
       <c r="R22" s="59"/>
     </row>
@@ -17399,14 +17397,14 @@
       <c r="A26" s="106" t="s">
         <v>354</v>
       </c>
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119" t="s">
+      <c r="C26" s="136"/>
+      <c r="D26" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="E26" s="119"/>
+      <c r="E26" s="136"/>
       <c r="F26" s="59"/>
       <c r="G26" s="59"/>
       <c r="L26" s="106" t="s">
@@ -17480,18 +17478,18 @@
       <c r="L28" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="M28" s="133" t="s">
+      <c r="M28" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="N28" s="133"/>
-      <c r="O28" s="133" t="s">
+      <c r="N28" s="153"/>
+      <c r="O28" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="133" t="s">
+      <c r="P28" s="153"/>
+      <c r="Q28" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="R28" s="133"/>
+      <c r="R28" s="153"/>
     </row>
     <row r="29" spans="1:18" ht="18">
       <c r="A29" s="106" t="s">
@@ -17589,33 +17587,33 @@
       <c r="A32" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="133" t="s">
+      <c r="B32" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133" t="s">
+      <c r="C32" s="153"/>
+      <c r="D32" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133" t="s">
+      <c r="E32" s="153"/>
+      <c r="F32" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="G32" s="133"/>
+      <c r="G32" s="153"/>
       <c r="L32" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="M32" s="133" t="s">
+      <c r="M32" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="N32" s="133"/>
-      <c r="O32" s="133" t="s">
+      <c r="N32" s="153"/>
+      <c r="O32" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="P32" s="133"/>
-      <c r="Q32" s="133" t="s">
+      <c r="P32" s="153"/>
+      <c r="Q32" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="R32" s="133"/>
+      <c r="R32" s="153"/>
     </row>
     <row r="33" spans="1:18" ht="18">
       <c r="A33" s="106" t="s">
@@ -17717,18 +17715,18 @@
       <c r="A36" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="133" t="s">
+      <c r="B36" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="C36" s="133"/>
-      <c r="D36" s="133" t="s">
+      <c r="C36" s="153"/>
+      <c r="D36" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="E36" s="133"/>
-      <c r="F36" s="133" t="s">
+      <c r="E36" s="153"/>
+      <c r="F36" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="G36" s="133"/>
+      <c r="G36" s="153"/>
       <c r="L36" s="101" t="s">
         <v>360</v>
       </c>
@@ -17764,14 +17762,14 @@
       <c r="L37" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="M37" s="119" t="s">
+      <c r="M37" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="N37" s="119"/>
-      <c r="O37" s="119" t="s">
+      <c r="N37" s="136"/>
+      <c r="O37" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="P37" s="119"/>
+      <c r="P37" s="136"/>
       <c r="Q37" s="59"/>
       <c r="R37" s="59"/>
     </row>
@@ -17875,14 +17873,14 @@
       <c r="A41" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="119" t="s">
+      <c r="B41" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119" t="s">
+      <c r="C41" s="136"/>
+      <c r="D41" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="E41" s="119"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="59"/>
       <c r="G41" s="59"/>
       <c r="L41" s="107" t="s">
@@ -17975,48 +17973,48 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="Q28:R28"/>
     <mergeCell ref="M32:N32"/>
     <mergeCell ref="O32:P32"/>
     <mergeCell ref="Q32:R32"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:P22"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18050,12 +18048,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="113" t="s">
         <v>2978</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
-      <c r="L2" s="134" t="s">
+      <c r="L2" s="113" t="s">
         <v>2979</v>
       </c>
       <c r="M2" s="54"/>
@@ -18063,31 +18061,31 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="105"/>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="134" t="s">
         <v>2875</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117" t="s">
+      <c r="C3" s="134"/>
+      <c r="D3" s="134" t="s">
         <v>2876</v>
       </c>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117" t="s">
+      <c r="E3" s="134"/>
+      <c r="F3" s="134" t="s">
         <v>2877</v>
       </c>
-      <c r="G3" s="117"/>
+      <c r="G3" s="134"/>
       <c r="L3" s="105"/>
-      <c r="M3" s="117" t="s">
+      <c r="M3" s="134" t="s">
         <v>2875</v>
       </c>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117" t="s">
+      <c r="N3" s="134"/>
+      <c r="O3" s="134" t="s">
         <v>2876</v>
       </c>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117" t="s">
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134" t="s">
         <v>2877</v>
       </c>
-      <c r="R3" s="117"/>
+      <c r="R3" s="134"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="105"/>
@@ -18130,215 +18128,215 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="114" t="s">
         <v>2874</v>
       </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="L5" s="147" t="s">
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="L5" s="121" t="s">
         <v>2980</v>
       </c>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="148"/>
-      <c r="P5" s="148"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="117" t="s">
         <v>794</v>
       </c>
-      <c r="B6" s="137">
+      <c r="B6" s="116">
         <v>1.143</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="116" t="s">
         <v>2682</v>
       </c>
-      <c r="D6" s="137">
+      <c r="D6" s="116">
         <v>1.18</v>
       </c>
-      <c r="E6" s="137" t="s">
+      <c r="E6" s="116" t="s">
         <v>2883</v>
       </c>
-      <c r="F6" s="137">
+      <c r="F6" s="116">
         <v>0.72</v>
       </c>
-      <c r="G6" s="137" t="s">
+      <c r="G6" s="116" t="s">
         <v>661</v>
       </c>
-      <c r="L6" s="143" t="s">
+      <c r="L6" s="119" t="s">
         <v>2928</v>
       </c>
-      <c r="M6" s="151" t="s">
+      <c r="M6" s="152" t="s">
         <v>2879</v>
       </c>
-      <c r="N6" s="151"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
+      <c r="N6" s="152"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="117" t="s">
         <v>795</v>
       </c>
-      <c r="B7" s="137">
+      <c r="B7" s="116">
         <v>1.1990000000000001</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="116" t="s">
         <v>2683</v>
       </c>
-      <c r="D7" s="137">
+      <c r="D7" s="116">
         <v>1.35</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="116" t="s">
         <v>2886</v>
       </c>
-      <c r="F7" s="137">
+      <c r="F7" s="116">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G7" s="137" t="s">
+      <c r="G7" s="116" t="s">
         <v>2770</v>
       </c>
-      <c r="L7" s="143" t="s">
+      <c r="L7" s="119" t="s">
         <v>2929</v>
       </c>
-      <c r="M7" s="144">
+      <c r="M7" s="120">
         <v>0.93700000000000006</v>
       </c>
-      <c r="N7" s="144" t="s">
+      <c r="N7" s="120" t="s">
         <v>2981</v>
       </c>
-      <c r="O7" s="144"/>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="144"/>
-      <c r="R7" s="144"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="117" t="s">
         <v>796</v>
       </c>
-      <c r="B8" s="137">
+      <c r="B8" s="116">
         <v>1.369</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="116" t="s">
         <v>2684</v>
       </c>
-      <c r="D8" s="137">
+      <c r="D8" s="116">
         <v>1.47</v>
       </c>
-      <c r="E8" s="137" t="s">
+      <c r="E8" s="116" t="s">
         <v>2890</v>
       </c>
-      <c r="F8" s="137">
+      <c r="F8" s="116">
         <v>0.95</v>
       </c>
-      <c r="G8" s="137" t="s">
+      <c r="G8" s="116" t="s">
         <v>2775</v>
       </c>
-      <c r="L8" s="143" t="s">
+      <c r="L8" s="119" t="s">
         <v>2930</v>
       </c>
-      <c r="M8" s="144">
+      <c r="M8" s="120">
         <v>0.88500000000000001</v>
       </c>
-      <c r="N8" s="144" t="s">
+      <c r="N8" s="120" t="s">
         <v>2982</v>
       </c>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="144"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
     </row>
     <row r="9" spans="1:18" ht="18">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="117" t="s">
         <v>797</v>
       </c>
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="118" t="s">
         <v>2919</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="118" t="s">
         <v>2685</v>
       </c>
-      <c r="D9" s="137">
+      <c r="D9" s="116">
         <v>0.89</v>
       </c>
-      <c r="E9" s="137" t="s">
+      <c r="E9" s="116" t="s">
         <v>464</v>
       </c>
-      <c r="F9" s="140"/>
-      <c r="G9" s="141"/>
-      <c r="L9" s="143" t="s">
+      <c r="F9" s="156"/>
+      <c r="G9" s="157"/>
+      <c r="L9" s="119" t="s">
         <v>2931</v>
       </c>
-      <c r="M9" s="144">
+      <c r="M9" s="120">
         <v>1.052</v>
       </c>
-      <c r="N9" s="144" t="s">
+      <c r="N9" s="120" t="s">
         <v>2983</v>
       </c>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="145"/>
-      <c r="R9" s="146"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="154"/>
+      <c r="R9" s="155"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="117" t="s">
         <v>798</v>
       </c>
-      <c r="B10" s="137">
+      <c r="B10" s="116">
         <v>0.83299999999999996</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="116" t="s">
         <v>2686</v>
       </c>
-      <c r="D10" s="137">
+      <c r="D10" s="116">
         <v>1.4</v>
       </c>
-      <c r="E10" s="137" t="s">
+      <c r="E10" s="116" t="s">
         <v>2896</v>
       </c>
-      <c r="F10" s="137">
+      <c r="F10" s="116">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="116" t="s">
         <v>2780</v>
       </c>
-      <c r="L10" s="143" t="s">
+      <c r="L10" s="119" t="s">
         <v>2932</v>
       </c>
-      <c r="M10" s="144">
+      <c r="M10" s="120">
         <v>1.2030000000000001</v>
       </c>
-      <c r="N10" s="144" t="s">
+      <c r="N10" s="120" t="s">
         <v>2984</v>
       </c>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="117" t="s">
         <v>799</v>
       </c>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="158" t="s">
         <v>2879</v>
       </c>
-      <c r="C11" s="142"/>
-      <c r="D11" s="142" t="s">
+      <c r="C11" s="158"/>
+      <c r="D11" s="158" t="s">
         <v>2879</v>
       </c>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142" t="s">
+      <c r="E11" s="158"/>
+      <c r="F11" s="158" t="s">
         <v>2879</v>
       </c>
-      <c r="G11" s="142"/>
+      <c r="G11" s="158"/>
       <c r="L11" s="101" t="s">
         <v>5</v>
       </c>
@@ -18350,57 +18348,57 @@
       <c r="R11" s="59"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="117" t="s">
         <v>800</v>
       </c>
-      <c r="B12" s="137">
+      <c r="B12" s="116">
         <v>0.92400000000000004</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="116" t="s">
         <v>2687</v>
       </c>
-      <c r="D12" s="137">
+      <c r="D12" s="116">
         <v>0.73</v>
       </c>
-      <c r="E12" s="137" t="s">
+      <c r="E12" s="116" t="s">
         <v>2900</v>
       </c>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
       <c r="L12" s="106" t="s">
         <v>340</v>
       </c>
-      <c r="M12" s="119" t="s">
+      <c r="M12" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119" t="s">
+      <c r="N12" s="136"/>
+      <c r="O12" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="P12" s="119"/>
+      <c r="P12" s="136"/>
       <c r="Q12" s="59"/>
       <c r="R12" s="59"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="117" t="s">
         <v>801</v>
       </c>
-      <c r="B13" s="137">
+      <c r="B13" s="116">
         <v>0.85599999999999998</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="116" t="s">
         <v>2688</v>
       </c>
-      <c r="D13" s="137">
+      <c r="D13" s="116">
         <v>1.06</v>
       </c>
-      <c r="E13" s="137" t="s">
+      <c r="E13" s="116" t="s">
         <v>2904</v>
       </c>
-      <c r="F13" s="137">
+      <c r="F13" s="116">
         <v>0.78</v>
       </c>
-      <c r="G13" s="137" t="s">
+      <c r="G13" s="116" t="s">
         <v>2783</v>
       </c>
       <c r="L13" s="106" t="s">
@@ -18418,19 +18416,19 @@
       <c r="R13" s="97"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="117" t="s">
         <v>802</v>
       </c>
-      <c r="B14" s="137">
+      <c r="B14" s="116">
         <v>1.224</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="116" t="s">
         <v>2689</v>
       </c>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
       <c r="L14" s="106" t="s">
         <v>10</v>
       </c>
@@ -18473,14 +18471,14 @@
       <c r="A16" s="106" t="s">
         <v>340</v>
       </c>
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119" t="s">
+      <c r="C16" s="136"/>
+      <c r="D16" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="E16" s="119"/>
+      <c r="E16" s="136"/>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
       <c r="L16" s="101" t="s">
@@ -18518,14 +18516,14 @@
       <c r="L17" s="106" t="s">
         <v>343</v>
       </c>
-      <c r="M17" s="119" t="s">
+      <c r="M17" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119" t="s">
+      <c r="N17" s="136"/>
+      <c r="O17" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="P17" s="119"/>
+      <c r="P17" s="136"/>
       <c r="Q17" s="59"/>
       <c r="R17" s="59"/>
     </row>
@@ -18625,23 +18623,23 @@
       <c r="A21" s="106" t="s">
         <v>343</v>
       </c>
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119" t="s">
+      <c r="C21" s="136"/>
+      <c r="D21" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="E21" s="119"/>
+      <c r="E21" s="136"/>
       <c r="F21" s="59"/>
       <c r="G21" s="59"/>
       <c r="L21" s="105">
         <v>2006</v>
       </c>
-      <c r="M21" s="119" t="s">
+      <c r="M21" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="N21" s="119"/>
+      <c r="N21" s="136"/>
       <c r="O21" s="59"/>
       <c r="P21" s="59"/>
       <c r="Q21" s="59"/>
@@ -18747,10 +18745,10 @@
       <c r="A25" s="105">
         <v>2006</v>
       </c>
-      <c r="B25" s="119" t="s">
+      <c r="B25" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="C25" s="119"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="59"/>
       <c r="E25" s="59"/>
       <c r="F25" s="59"/>
@@ -18788,10 +18786,10 @@
       </c>
       <c r="M26" s="59"/>
       <c r="N26" s="59"/>
-      <c r="O26" s="119" t="s">
+      <c r="O26" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="P26" s="119"/>
+      <c r="P26" s="136"/>
       <c r="Q26" s="59"/>
       <c r="R26" s="59"/>
     </row>
@@ -18873,10 +18871,10 @@
       </c>
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
-      <c r="D30" s="119" t="s">
+      <c r="D30" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="E30" s="119"/>
+      <c r="E30" s="136"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59"/>
       <c r="L30" s="105">
@@ -18886,10 +18884,10 @@
       <c r="N30" s="59"/>
       <c r="O30" s="59"/>
       <c r="P30" s="59"/>
-      <c r="Q30" s="119" t="s">
+      <c r="Q30" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="R30" s="119"/>
+      <c r="R30" s="136"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="105">
@@ -18971,21 +18969,21 @@
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
       <c r="E34" s="59"/>
-      <c r="F34" s="119" t="s">
+      <c r="F34" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="G34" s="119"/>
+      <c r="G34" s="136"/>
       <c r="L34" s="106" t="s">
         <v>354</v>
       </c>
-      <c r="M34" s="119" t="s">
+      <c r="M34" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="N34" s="119"/>
-      <c r="O34" s="119" t="s">
+      <c r="N34" s="136"/>
+      <c r="O34" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="P34" s="119"/>
+      <c r="P34" s="136"/>
       <c r="Q34" s="59"/>
       <c r="R34" s="59"/>
     </row>
@@ -19073,14 +19071,14 @@
       <c r="A38" s="106" t="s">
         <v>354</v>
       </c>
-      <c r="B38" s="119" t="s">
+      <c r="B38" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119" t="s">
+      <c r="C38" s="136"/>
+      <c r="D38" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="E38" s="119"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="59"/>
       <c r="G38" s="59"/>
       <c r="L38" s="106" t="s">
@@ -19154,18 +19152,18 @@
       <c r="L40" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="M40" s="133" t="s">
+      <c r="M40" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="N40" s="133"/>
-      <c r="O40" s="133" t="s">
+      <c r="N40" s="153"/>
+      <c r="O40" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="P40" s="133"/>
-      <c r="Q40" s="133" t="s">
+      <c r="P40" s="153"/>
+      <c r="Q40" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="R40" s="133"/>
+      <c r="R40" s="153"/>
     </row>
     <row r="41" spans="1:18" ht="18">
       <c r="A41" s="106" t="s">
@@ -19263,33 +19261,33 @@
       <c r="A44" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="133" t="s">
+      <c r="B44" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="C44" s="133"/>
-      <c r="D44" s="133" t="s">
+      <c r="C44" s="153"/>
+      <c r="D44" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="E44" s="133"/>
-      <c r="F44" s="133" t="s">
+      <c r="E44" s="153"/>
+      <c r="F44" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="G44" s="133"/>
+      <c r="G44" s="153"/>
       <c r="L44" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="M44" s="133" t="s">
+      <c r="M44" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="N44" s="133"/>
-      <c r="O44" s="133" t="s">
+      <c r="N44" s="153"/>
+      <c r="O44" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="P44" s="133"/>
-      <c r="Q44" s="133" t="s">
+      <c r="P44" s="153"/>
+      <c r="Q44" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="R44" s="133"/>
+      <c r="R44" s="153"/>
     </row>
     <row r="45" spans="1:18" ht="18">
       <c r="A45" s="106" t="s">
@@ -19391,18 +19389,18 @@
       <c r="A48" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="133" t="s">
+      <c r="B48" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="C48" s="133"/>
-      <c r="D48" s="133" t="s">
+      <c r="C48" s="153"/>
+      <c r="D48" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="E48" s="133"/>
-      <c r="F48" s="133" t="s">
+      <c r="E48" s="153"/>
+      <c r="F48" s="153" t="s">
         <v>2879</v>
       </c>
-      <c r="G48" s="133"/>
+      <c r="G48" s="153"/>
       <c r="L48" s="101" t="s">
         <v>360</v>
       </c>
@@ -19438,14 +19436,14 @@
       <c r="L49" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="M49" s="119" t="s">
+      <c r="M49" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="N49" s="119"/>
-      <c r="O49" s="119" t="s">
+      <c r="N49" s="136"/>
+      <c r="O49" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="P49" s="119"/>
+      <c r="P49" s="136"/>
       <c r="Q49" s="59"/>
       <c r="R49" s="59"/>
     </row>
@@ -19549,14 +19547,14 @@
       <c r="A53" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="119" t="s">
+      <c r="B53" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119" t="s">
+      <c r="C53" s="136"/>
+      <c r="D53" s="136" t="s">
         <v>2879</v>
       </c>
-      <c r="E53" s="119"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="59"/>
       <c r="G53" s="59"/>
       <c r="L53" s="107" t="s">
@@ -19639,6 +19637,41 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="Q44:R44"/>
@@ -19647,46 +19680,11 @@
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="M49:N49"/>
     <mergeCell ref="O49:P49"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19696,8 +19694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13834C78-7DF2-304A-9D5B-DDF021AB6EE8}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19728,7 +19726,7 @@
       <c r="F1" s="54" t="s">
         <v>2679</v>
       </c>
-      <c r="I1" s="155" t="s">
+      <c r="I1" s="124" t="s">
         <v>3181</v>
       </c>
       <c r="J1" s="54" t="s">
@@ -20071,7 +20069,7 @@
       <c r="C13" s="108" t="s">
         <v>3037</v>
       </c>
-      <c r="D13" s="149"/>
+      <c r="D13" s="100"/>
       <c r="E13" s="100" t="s">
         <v>3038</v>
       </c>
@@ -20081,7 +20079,7 @@
       <c r="G13" s="108" t="s">
         <v>3126</v>
       </c>
-      <c r="H13" s="149"/>
+      <c r="H13" s="100"/>
       <c r="I13" s="108" t="s">
         <v>3040</v>
       </c>
@@ -20102,7 +20100,7 @@
       <c r="C14" s="108" t="s">
         <v>3039</v>
       </c>
-      <c r="D14" s="149"/>
+      <c r="D14" s="100"/>
       <c r="E14" s="100" t="s">
         <v>3031</v>
       </c>
@@ -20112,7 +20110,7 @@
       <c r="G14" s="108" t="s">
         <v>3127</v>
       </c>
-      <c r="H14" s="149"/>
+      <c r="H14" s="100"/>
       <c r="I14" s="108" t="s">
         <v>3042</v>
       </c>
@@ -20147,10 +20145,10 @@
       <c r="I15" s="108" t="s">
         <v>3064</v>
       </c>
-      <c r="J15" s="154" t="s">
+      <c r="J15" s="123" t="s">
         <v>3243</v>
       </c>
-      <c r="K15" s="154" t="s">
+      <c r="K15" s="123" t="s">
         <v>3194</v>
       </c>
     </row>
@@ -20199,10 +20197,10 @@
       <c r="E17" s="100" t="s">
         <v>3064</v>
       </c>
-      <c r="F17" s="154" t="s">
+      <c r="F17" s="123" t="s">
         <v>3147</v>
       </c>
-      <c r="G17" s="154" t="s">
+      <c r="G17" s="123" t="s">
         <v>3130</v>
       </c>
       <c r="H17" s="100"/>
@@ -20257,7 +20255,7 @@
       <c r="C19" s="108" t="s">
         <v>3069</v>
       </c>
-      <c r="D19" s="149"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="100" t="s">
         <v>3070</v>
       </c>
@@ -20267,7 +20265,7 @@
       <c r="G19" s="108" t="s">
         <v>3133</v>
       </c>
-      <c r="H19" s="149"/>
+      <c r="H19" s="100"/>
       <c r="I19" s="108" t="s">
         <v>3077</v>
       </c>
@@ -20288,7 +20286,7 @@
       <c r="C20" s="108" t="s">
         <v>3071</v>
       </c>
-      <c r="D20" s="149"/>
+      <c r="D20" s="100"/>
       <c r="E20" s="100" t="s">
         <v>3076</v>
       </c>
@@ -20298,7 +20296,7 @@
       <c r="G20" s="108" t="s">
         <v>3135</v>
       </c>
-      <c r="H20" s="149"/>
+      <c r="H20" s="100"/>
       <c r="I20" s="108" t="s">
         <v>3148</v>
       </c>
@@ -20319,7 +20317,7 @@
       <c r="C21" s="108" t="s">
         <v>3080</v>
       </c>
-      <c r="D21" s="149"/>
+      <c r="D21" s="100"/>
       <c r="E21" s="100" t="s">
         <v>3077</v>
       </c>
@@ -20329,7 +20327,7 @@
       <c r="G21" s="108" t="s">
         <v>3137</v>
       </c>
-      <c r="H21" s="149"/>
+      <c r="H21" s="100"/>
       <c r="I21" s="108" t="s">
         <v>3149</v>
       </c>
@@ -20350,7 +20348,7 @@
       <c r="C22" s="108" t="s">
         <v>3082</v>
       </c>
-      <c r="D22" s="149"/>
+      <c r="D22" s="100"/>
       <c r="E22" s="100" t="s">
         <v>3148</v>
       </c>
@@ -20360,7 +20358,7 @@
       <c r="G22" s="108" t="s">
         <v>3138</v>
       </c>
-      <c r="H22" s="149"/>
+      <c r="H22" s="100"/>
       <c r="I22" s="108" t="s">
         <v>3050</v>
       </c>
@@ -20412,7 +20410,7 @@
       <c r="C24" s="108" t="s">
         <v>3049</v>
       </c>
-      <c r="D24" s="149"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="100" t="s">
         <v>3050</v>
       </c>
@@ -20422,7 +20420,7 @@
       <c r="G24" s="108" t="s">
         <v>3140</v>
       </c>
-      <c r="H24" s="149"/>
+      <c r="H24" s="100"/>
       <c r="I24" s="108" t="s">
         <v>3244</v>
       </c>
@@ -20443,7 +20441,7 @@
       <c r="C25" s="108" t="s">
         <v>3051</v>
       </c>
-      <c r="D25" s="149"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="100" t="s">
         <v>3150</v>
       </c>
@@ -20453,7 +20451,7 @@
       <c r="G25" s="108" t="s">
         <v>3141</v>
       </c>
-      <c r="H25" s="149"/>
+      <c r="H25" s="100"/>
       <c r="I25" s="108" t="s">
         <v>3152</v>
       </c>
@@ -20474,7 +20472,7 @@
       <c r="C26" s="108" t="s">
         <v>3054</v>
       </c>
-      <c r="D26" s="149"/>
+      <c r="D26" s="100"/>
       <c r="E26" s="100" t="s">
         <v>3151</v>
       </c>
@@ -20484,7 +20482,7 @@
       <c r="G26" s="108" t="s">
         <v>3142</v>
       </c>
-      <c r="H26" s="149"/>
+      <c r="H26" s="100"/>
       <c r="I26" s="108" t="s">
         <v>3153</v>
       </c>
@@ -20505,7 +20503,7 @@
       <c r="C27" s="108" t="s">
         <v>3058</v>
       </c>
-      <c r="D27" s="149"/>
+      <c r="D27" s="100"/>
       <c r="E27" s="100" t="s">
         <v>3152</v>
       </c>
@@ -20515,7 +20513,7 @@
       <c r="G27" s="108" t="s">
         <v>3144</v>
       </c>
-      <c r="H27" s="149"/>
+      <c r="H27" s="100"/>
       <c r="I27" s="108" t="s">
         <v>2718</v>
       </c>
@@ -20533,7 +20531,7 @@
       <c r="C28" s="108" t="s">
         <v>3061</v>
       </c>
-      <c r="D28" s="149"/>
+      <c r="D28" s="100"/>
       <c r="E28" s="100" t="s">
         <v>3153</v>
       </c>
@@ -20543,7 +20541,7 @@
       <c r="G28" s="108" t="s">
         <v>3116</v>
       </c>
-      <c r="H28" s="149"/>
+      <c r="H28" s="100"/>
       <c r="I28" s="103" t="s">
         <v>489</v>
       </c>
@@ -20558,14 +20556,14 @@
       <c r="C29" s="108" t="s">
         <v>3063</v>
       </c>
-      <c r="D29" s="149"/>
+      <c r="D29" s="100"/>
       <c r="E29" s="100" t="s">
         <v>2718</v>
       </c>
       <c r="F29" s="108">
         <v>3085</v>
       </c>
-      <c r="H29" s="149"/>
+      <c r="H29" s="100"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="100" t="s">
@@ -20574,99 +20572,99 @@
       <c r="B30" s="108">
         <v>3749</v>
       </c>
-      <c r="D30" s="149"/>
+      <c r="D30" s="100"/>
       <c r="E30" s="99" t="s">
         <v>489</v>
       </c>
-      <c r="H30" s="149"/>
+      <c r="H30" s="100"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="99" t="s">
         <v>489</v>
       </c>
-      <c r="D31" s="149"/>
+      <c r="D31" s="100"/>
       <c r="E31" s="100"/>
       <c r="F31" s="108"/>
-      <c r="H31" s="149"/>
+      <c r="H31" s="100"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="100"/>
       <c r="B32" s="108"/>
-      <c r="D32" s="149"/>
+      <c r="D32" s="100"/>
       <c r="E32" s="99"/>
-      <c r="H32" s="149"/>
+      <c r="H32" s="100"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="100"/>
       <c r="B33" s="108"/>
-      <c r="D33" s="149"/>
+      <c r="D33" s="100"/>
       <c r="E33" s="99"/>
-      <c r="H33" s="149"/>
+      <c r="H33" s="100"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="100"/>
       <c r="B34" s="108"/>
-      <c r="D34" s="149"/>
+      <c r="D34" s="100"/>
       <c r="E34" s="99"/>
-      <c r="H34" s="149"/>
+      <c r="H34" s="100"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="156"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="160"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="159"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
-      <c r="K35" s="158"/>
+      <c r="A35" s="125"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="127"/>
+      <c r="K35" s="127"/>
     </row>
     <row r="36" spans="1:11" ht="19">
-      <c r="A36" s="156"/>
-      <c r="B36" s="157"/>
-      <c r="C36" s="161" t="s">
+      <c r="A36" s="125"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="159" t="s">
         <v>3247</v>
       </c>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="158"/>
-      <c r="K36" s="158"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="127"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="156"/>
-      <c r="B37" s="157"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="159"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="159"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="158"/>
-      <c r="K37" s="158"/>
+      <c r="A37" s="125"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="127"/>
+      <c r="K37" s="127"/>
     </row>
     <row r="38" spans="1:11">
       <c r="C38" s="108"/>
-      <c r="D38" s="149"/>
-      <c r="H38" s="149"/>
+      <c r="D38" s="100"/>
+      <c r="H38" s="100"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="98"/>
       <c r="B39" s="109" t="s">
         <v>3078</v>
       </c>
-      <c r="D39" s="149"/>
+      <c r="D39" s="100"/>
       <c r="E39" s="98"/>
       <c r="F39" s="109" t="s">
         <v>3078</v>
       </c>
-      <c r="H39" s="149"/>
+      <c r="H39" s="100"/>
       <c r="I39" s="109"/>
       <c r="J39" s="109" t="s">
         <v>3078</v>
@@ -20682,7 +20680,7 @@
       <c r="C40" s="103" t="s">
         <v>376</v>
       </c>
-      <c r="D40" s="149"/>
+      <c r="D40" s="100"/>
       <c r="E40" s="99" t="s">
         <v>2680</v>
       </c>
@@ -20692,7 +20690,7 @@
       <c r="G40" s="103" t="s">
         <v>376</v>
       </c>
-      <c r="H40" s="149"/>
+      <c r="H40" s="100"/>
       <c r="I40" s="103" t="s">
         <v>2680</v>
       </c>
@@ -20713,7 +20711,7 @@
       <c r="C41" s="108" t="s">
         <v>3085</v>
       </c>
-      <c r="D41" s="149"/>
+      <c r="D41" s="100"/>
       <c r="E41" s="100" t="s">
         <v>3072</v>
       </c>
@@ -20723,7 +20721,7 @@
       <c r="G41" s="108" t="s">
         <v>3154</v>
       </c>
-      <c r="H41" s="149"/>
+      <c r="H41" s="100"/>
       <c r="I41" s="108" t="s">
         <v>3072</v>
       </c>
@@ -20744,7 +20742,7 @@
       <c r="C42" s="108" t="s">
         <v>3086</v>
       </c>
-      <c r="D42" s="149"/>
+      <c r="D42" s="100"/>
       <c r="E42" s="100" t="s">
         <v>3073</v>
       </c>
@@ -20754,7 +20752,7 @@
       <c r="G42" s="108" t="s">
         <v>3155</v>
       </c>
-      <c r="H42" s="149"/>
+      <c r="H42" s="100"/>
       <c r="I42" s="108" t="s">
         <v>3073</v>
       </c>
@@ -21018,10 +21016,10 @@
       <c r="E51" s="100" t="s">
         <v>3064</v>
       </c>
-      <c r="F51" s="154" t="s">
+      <c r="F51" s="123" t="s">
         <v>3180</v>
       </c>
-      <c r="G51" s="154" t="s">
+      <c r="G51" s="123" t="s">
         <v>3164</v>
       </c>
       <c r="I51" s="108" t="s">
@@ -21044,7 +21042,7 @@
       <c r="C52" s="108" t="s">
         <v>3098</v>
       </c>
-      <c r="D52" s="149"/>
+      <c r="D52" s="100"/>
       <c r="E52" s="100" t="s">
         <v>3067</v>
       </c>
@@ -21074,7 +21072,7 @@
       <c r="C53" s="108" t="s">
         <v>3100</v>
       </c>
-      <c r="D53" s="149"/>
+      <c r="D53" s="100"/>
       <c r="E53" s="100" t="s">
         <v>3070</v>
       </c>
@@ -21104,7 +21102,7 @@
       <c r="C54" s="108" t="s">
         <v>3102</v>
       </c>
-      <c r="D54" s="149"/>
+      <c r="D54" s="100"/>
       <c r="E54" s="100" t="s">
         <v>3076</v>
       </c>
@@ -21134,7 +21132,7 @@
       <c r="C55" s="108" t="s">
         <v>3104</v>
       </c>
-      <c r="D55" s="149"/>
+      <c r="D55" s="100"/>
       <c r="E55" s="100" t="s">
         <v>3077</v>
       </c>
@@ -21164,7 +21162,7 @@
       <c r="C56" s="108" t="s">
         <v>3105</v>
       </c>
-      <c r="D56" s="149"/>
+      <c r="D56" s="100"/>
       <c r="E56" s="100" t="s">
         <v>3148</v>
       </c>
@@ -21194,7 +21192,7 @@
       <c r="C57" s="108" t="s">
         <v>3107</v>
       </c>
-      <c r="D57" s="149"/>
+      <c r="D57" s="100"/>
       <c r="E57" s="100" t="s">
         <v>3149</v>
       </c>
@@ -21224,7 +21222,7 @@
       <c r="C58" s="108" t="s">
         <v>3108</v>
       </c>
-      <c r="D58" s="149"/>
+      <c r="D58" s="100"/>
       <c r="E58" s="100" t="s">
         <v>3050</v>
       </c>
@@ -21399,37 +21397,37 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="99"/>
-      <c r="D65" s="149"/>
+      <c r="D65" s="100"/>
     </row>
     <row r="66" spans="1:4" ht="16" customHeight="1">
-      <c r="D66" s="149"/>
+      <c r="D66" s="100"/>
     </row>
     <row r="67" spans="1:4" ht="16" customHeight="1">
-      <c r="D67" s="149"/>
+      <c r="D67" s="100"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="D68" s="149"/>
+      <c r="D68" s="100"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="D69" s="149"/>
+      <c r="D69" s="100"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="D70" s="149"/>
+      <c r="D70" s="100"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="D71" s="149"/>
+      <c r="D71" s="100"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="D72" s="149"/>
+      <c r="D72" s="100"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="D73" s="150"/>
+      <c r="D73"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="D74" s="150"/>
+      <c r="D74"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="D75" s="150"/>
+      <c r="D75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21439,13 +21437,25 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE265C6-82DA-7846-9A78-1817B312242B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADE0E08-8EFB-C44A-8BCB-9F060F13DC6D}">
   <dimension ref="B2:G79"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -23319,17 +23329,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="135" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
       <c r="O1" s="72" t="s">
         <v>3248</v>
       </c>
@@ -23347,7 +23357,7 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="133" t="s">
         <v>3248</v>
       </c>
       <c r="B2" s="70" t="s">
@@ -23377,7 +23387,7 @@
       <c r="J2" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="K2" s="117" t="s">
+      <c r="K2" s="134" t="s">
         <v>359</v>
       </c>
       <c r="O2" s="72"/>
@@ -23393,7 +23403,7 @@
       <c r="S2" s="74"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="116"/>
+      <c r="A3" s="133"/>
       <c r="B3" s="83" t="s">
         <v>882</v>
       </c>
@@ -23421,7 +23431,7 @@
       <c r="J3" s="83" t="s">
         <v>889</v>
       </c>
-      <c r="K3" s="117"/>
+      <c r="K3" s="134"/>
       <c r="O3" s="77" t="s">
         <v>5</v>
       </c>
@@ -26057,7 +26067,7 @@
       <c r="J66" s="59" t="s">
         <v>1620</v>
       </c>
-      <c r="K66" s="119"/>
+      <c r="K66" s="136"/>
       <c r="O66" s="72" t="s">
         <v>119</v>
       </c>
@@ -26103,7 +26113,7 @@
       <c r="J67" s="59" t="s">
         <v>1628</v>
       </c>
-      <c r="K67" s="119"/>
+      <c r="K67" s="136"/>
       <c r="O67" s="72" t="s">
         <v>123</v>
       </c>
@@ -26762,17 +26772,17 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="85"/>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="139" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
       <c r="P1" s="72"/>
       <c r="Q1" s="87" t="s">
         <v>1044</v>
@@ -26788,7 +26798,7 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="120"/>
+      <c r="A2" s="137"/>
       <c r="B2" s="82" t="s">
         <v>364</v>
       </c>
@@ -26813,7 +26823,7 @@
       <c r="I2" s="82" t="s">
         <v>371</v>
       </c>
-      <c r="J2" s="121" t="s">
+      <c r="J2" s="138" t="s">
         <v>359</v>
       </c>
       <c r="P2" s="72"/>
@@ -26829,7 +26839,7 @@
       <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="120"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="83" t="s">
         <v>2671</v>
       </c>
@@ -26854,7 +26864,7 @@
       <c r="I3" s="83" t="s">
         <v>2678</v>
       </c>
-      <c r="J3" s="121"/>
+      <c r="J3" s="138"/>
       <c r="P3" s="77" t="s">
         <v>5</v>
       </c>
@@ -28507,10 +28517,10 @@
       <c r="Q45" s="88" t="s">
         <v>1752</v>
       </c>
-      <c r="R45" s="162" t="s">
+      <c r="R45" s="129" t="s">
         <v>1753</v>
       </c>
-      <c r="S45" s="162" t="s">
+      <c r="S45" s="129" t="s">
         <v>1754</v>
       </c>
       <c r="T45" s="88"/>
@@ -28551,10 +28561,10 @@
       <c r="Q46" s="88" t="s">
         <v>1755</v>
       </c>
-      <c r="R46" s="162" t="s">
+      <c r="R46" s="129" t="s">
         <v>1756</v>
       </c>
-      <c r="S46" s="162" t="s">
+      <c r="S46" s="129" t="s">
         <v>1757</v>
       </c>
       <c r="T46" s="88"/>
@@ -28595,10 +28605,10 @@
       <c r="Q47" s="88" t="s">
         <v>1758</v>
       </c>
-      <c r="R47" s="162" t="s">
+      <c r="R47" s="129" t="s">
         <v>1052</v>
       </c>
-      <c r="S47" s="162" t="s">
+      <c r="S47" s="129" t="s">
         <v>1759</v>
       </c>
       <c r="T47" s="88"/>
@@ -28639,10 +28649,10 @@
       <c r="Q48" s="88" t="s">
         <v>1760</v>
       </c>
-      <c r="R48" s="162" t="s">
+      <c r="R48" s="129" t="s">
         <v>1761</v>
       </c>
-      <c r="S48" s="162" t="s">
+      <c r="S48" s="129" t="s">
         <v>1762</v>
       </c>
       <c r="T48" s="88"/>
@@ -29352,7 +29362,7 @@
         <v>2164</v>
       </c>
       <c r="J66" s="59"/>
-      <c r="K66" s="115"/>
+      <c r="K66" s="132"/>
       <c r="P66" s="72" t="s">
         <v>119</v>
       </c>
@@ -29396,7 +29406,7 @@
         <v>2172</v>
       </c>
       <c r="J67" s="59"/>
-      <c r="K67" s="115"/>
+      <c r="K67" s="132"/>
       <c r="P67" s="72" t="s">
         <v>123</v>
       </c>
@@ -29890,14 +29900,14 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="85"/>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="139" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
       <c r="H1" s="91"/>
       <c r="I1" s="81"/>
       <c r="L1" s="72"/>
@@ -29915,7 +29925,7 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="137" t="s">
         <v>2664</v>
       </c>
       <c r="B2" s="82" t="s">
@@ -29936,7 +29946,7 @@
       <c r="G2" s="82" t="s">
         <v>371</v>
       </c>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="138" t="s">
         <v>359</v>
       </c>
       <c r="L2" s="72"/>
@@ -29952,7 +29962,7 @@
       <c r="P2" s="88"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="120"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="83" t="s">
         <v>2665</v>
       </c>
@@ -29971,7 +29981,7 @@
       <c r="G3" s="83" t="s">
         <v>2670</v>
       </c>
-      <c r="H3" s="121"/>
+      <c r="H3" s="138"/>
       <c r="L3" s="77" t="s">
         <v>5</v>
       </c>
@@ -32564,26 +32574,26 @@
     </row>
     <row r="2" spans="1:11" s="19" customFormat="1">
       <c r="A2" s="21"/>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="140" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="124" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="141" t="s">
         <v>378</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124" t="s">
+      <c r="E2" s="141"/>
+      <c r="F2" s="141" t="s">
         <v>379</v>
       </c>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124" t="s">
+      <c r="G2" s="141"/>
+      <c r="H2" s="141" t="s">
         <v>380</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125" t="s">
+      <c r="I2" s="141"/>
+      <c r="J2" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="K2" s="125"/>
+      <c r="K2" s="140"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="22"/>
@@ -33471,26 +33481,26 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="25"/>
-      <c r="B46" s="125" t="s">
+      <c r="B46" s="140" t="s">
         <v>377</v>
       </c>
-      <c r="C46" s="125"/>
-      <c r="D46" s="124" t="s">
+      <c r="C46" s="140"/>
+      <c r="D46" s="141" t="s">
         <v>378</v>
       </c>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124" t="s">
+      <c r="E46" s="141"/>
+      <c r="F46" s="141" t="s">
         <v>379</v>
       </c>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124" t="s">
+      <c r="G46" s="141"/>
+      <c r="H46" s="141" t="s">
         <v>380</v>
       </c>
-      <c r="I46" s="124"/>
-      <c r="J46" s="125" t="s">
+      <c r="I46" s="141"/>
+      <c r="J46" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="K46" s="125"/>
+      <c r="K46" s="140"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="22"/>
@@ -34317,26 +34327,26 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="26"/>
-      <c r="B89" s="123" t="s">
+      <c r="B89" s="142" t="s">
         <v>377</v>
       </c>
-      <c r="C89" s="123"/>
-      <c r="D89" s="124" t="s">
+      <c r="C89" s="142"/>
+      <c r="D89" s="141" t="s">
         <v>378</v>
       </c>
-      <c r="E89" s="124"/>
-      <c r="F89" s="124" t="s">
+      <c r="E89" s="141"/>
+      <c r="F89" s="141" t="s">
         <v>379</v>
       </c>
-      <c r="G89" s="124"/>
-      <c r="H89" s="124" t="s">
+      <c r="G89" s="141"/>
+      <c r="H89" s="141" t="s">
         <v>380</v>
       </c>
-      <c r="I89" s="124"/>
-      <c r="J89" s="123" t="s">
+      <c r="I89" s="141"/>
+      <c r="J89" s="142" t="s">
         <v>381</v>
       </c>
-      <c r="K89" s="123"/>
+      <c r="K89" s="142"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="27"/>
@@ -35088,21 +35098,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="J46:K46"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35353,14 +35363,14 @@
       <c r="C13" s="108" t="s">
         <v>3037</v>
       </c>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="100" t="s">
@@ -35372,14 +35382,14 @@
       <c r="C14" s="108" t="s">
         <v>3039</v>
       </c>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="100" t="s">
@@ -35467,14 +35477,14 @@
       <c r="C19" s="108" t="s">
         <v>3069</v>
       </c>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="152"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
     </row>
     <row r="20" spans="1:11" ht="18">
       <c r="A20" s="100" t="s">
@@ -35486,14 +35496,14 @@
       <c r="C20" s="108" t="s">
         <v>3071</v>
       </c>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="152"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
     </row>
     <row r="21" spans="1:11" ht="18">
       <c r="A21" s="100" t="s">
@@ -35505,14 +35515,14 @@
       <c r="C21" s="108" t="s">
         <v>3080</v>
       </c>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="152"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="143"/>
     </row>
     <row r="22" spans="1:11" ht="18">
       <c r="A22" s="100" t="s">
@@ -35524,23 +35534,23 @@
       <c r="C22" s="108" t="s">
         <v>3082</v>
       </c>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="100" t="s">
         <v>3044</v>
       </c>
-      <c r="B23" s="153">
+      <c r="B23" s="144">
         <v>1.21</v>
       </c>
-      <c r="C23" s="153" t="s">
+      <c r="C23" s="144" t="s">
         <v>3046</v>
       </c>
       <c r="D23" s="100"/>
@@ -35556,50 +35566,50 @@
       <c r="A24" s="100" t="s">
         <v>3045</v>
       </c>
-      <c r="B24" s="153"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="152"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="143"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="100" t="s">
         <v>3044</v>
       </c>
-      <c r="B25" s="153" t="s">
+      <c r="B25" s="144" t="s">
         <v>3048</v>
       </c>
-      <c r="C25" s="153" t="s">
+      <c r="C25" s="144" t="s">
         <v>3049</v>
       </c>
-      <c r="D25" s="152"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="152"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="100" t="s">
         <v>3047</v>
       </c>
-      <c r="B26" s="153"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="152"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="100" t="s">
@@ -35611,150 +35621,150 @@
       <c r="C27" s="108" t="s">
         <v>3051</v>
       </c>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="152"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="100" t="s">
         <v>3052</v>
       </c>
-      <c r="B28" s="153">
+      <c r="B28" s="144">
         <v>1.4930000000000001</v>
       </c>
-      <c r="C28" s="153" t="s">
+      <c r="C28" s="144" t="s">
         <v>3054</v>
       </c>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="152"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="143"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="100" t="s">
         <v>3053</v>
       </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="152"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="143"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="100" t="s">
         <v>3055</v>
       </c>
-      <c r="B30" s="153" t="s">
+      <c r="B30" s="144" t="s">
         <v>3057</v>
       </c>
-      <c r="C30" s="153" t="s">
+      <c r="C30" s="144" t="s">
         <v>3058</v>
       </c>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="152"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="143"/>
+      <c r="K30" s="143"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="100" t="s">
         <v>3056</v>
       </c>
-      <c r="B31" s="153"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="152"/>
-      <c r="K31" s="152"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="143"/>
+      <c r="K31" s="143"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="100" t="s">
         <v>3055</v>
       </c>
-      <c r="B32" s="153">
+      <c r="B32" s="144">
         <v>1.9430000000000001</v>
       </c>
-      <c r="C32" s="153" t="s">
+      <c r="C32" s="144" t="s">
         <v>3061</v>
       </c>
-      <c r="D32" s="152"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="152"/>
-      <c r="K32" s="152"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="143"/>
+      <c r="K32" s="143"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="100" t="s">
         <v>3059</v>
       </c>
-      <c r="B33" s="153"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="152"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="152"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="143"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="100" t="s">
         <v>3055</v>
       </c>
-      <c r="B34" s="153">
+      <c r="B34" s="144">
         <v>1.089</v>
       </c>
-      <c r="C34" s="153" t="s">
+      <c r="C34" s="144" t="s">
         <v>3063</v>
       </c>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="152"/>
-      <c r="K34" s="152"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="143"/>
+      <c r="K34" s="143"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="100" t="s">
         <v>3062</v>
       </c>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="152"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="143"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="100" t="s">
@@ -35763,14 +35773,14 @@
       <c r="B36" s="108">
         <v>3749</v>
       </c>
-      <c r="D36" s="152"/>
-      <c r="E36" s="152"/>
-      <c r="F36" s="152"/>
-      <c r="G36" s="152"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="152"/>
-      <c r="K36" s="152"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="143"/>
     </row>
     <row r="37" spans="1:11" ht="18">
       <c r="A37" s="100" t="s">
@@ -35779,27 +35789,27 @@
       <c r="B37" s="108">
         <v>0.125</v>
       </c>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="152"/>
-      <c r="K37" s="152"/>
+      <c r="D37" s="143"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="143"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="143"/>
+      <c r="K37" s="143"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="99" t="s">
         <v>489</v>
       </c>
-      <c r="D38" s="152"/>
-      <c r="E38" s="152"/>
-      <c r="F38" s="152"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="152"/>
-      <c r="J38" s="152"/>
-      <c r="K38" s="152"/>
+      <c r="D38" s="143"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="143"/>
+      <c r="K38" s="143"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="100"/>
@@ -35909,10 +35919,10 @@
       <c r="A49" s="100" t="s">
         <v>3033</v>
       </c>
-      <c r="B49" s="152">
+      <c r="B49" s="143">
         <v>0.61599999999999999</v>
       </c>
-      <c r="C49" s="152" t="s">
+      <c r="C49" s="143" t="s">
         <v>3088</v>
       </c>
       <c r="D49" s="100"/>
@@ -35922,8 +35932,8 @@
       <c r="A50" s="100" t="s">
         <v>3034</v>
       </c>
-      <c r="B50" s="152"/>
-      <c r="C50" s="152"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="143"/>
       <c r="D50" s="100"/>
       <c r="E50" s="100"/>
     </row>
@@ -35931,10 +35941,10 @@
       <c r="A51" s="100" t="s">
         <v>3033</v>
       </c>
-      <c r="B51" s="152">
+      <c r="B51" s="143">
         <v>1.1279999999999999</v>
       </c>
-      <c r="C51" s="152" t="s">
+      <c r="C51" s="143" t="s">
         <v>3089</v>
       </c>
       <c r="D51" s="100"/>
@@ -35944,10 +35954,10 @@
       <c r="A52" s="100" t="s">
         <v>3036</v>
       </c>
-      <c r="B52" s="152"/>
-      <c r="C52" s="152"/>
-      <c r="D52" s="152"/>
-      <c r="E52" s="152"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="143"/>
+      <c r="E52" s="143"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="100" t="s">
@@ -35959,8 +35969,8 @@
       <c r="C53" s="100" t="s">
         <v>3090</v>
       </c>
-      <c r="D53" s="152"/>
-      <c r="E53" s="152"/>
+      <c r="D53" s="143"/>
+      <c r="E53" s="143"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="100" t="s">
@@ -35972,8 +35982,8 @@
       <c r="C54" s="100" t="s">
         <v>3091</v>
       </c>
-      <c r="D54" s="152"/>
-      <c r="E54" s="152"/>
+      <c r="D54" s="143"/>
+      <c r="E54" s="143"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="100" t="s">
@@ -35985,8 +35995,8 @@
       <c r="C55" s="100" t="s">
         <v>3092</v>
       </c>
-      <c r="D55" s="152"/>
-      <c r="E55" s="152"/>
+      <c r="D55" s="143"/>
+      <c r="E55" s="143"/>
     </row>
     <row r="56" spans="1:5" ht="18">
       <c r="A56" s="100" t="s">
@@ -36070,10 +36080,10 @@
       <c r="A62" s="100" t="s">
         <v>3044</v>
       </c>
-      <c r="B62" s="152">
+      <c r="B62" s="143">
         <v>1.1850000000000001</v>
       </c>
-      <c r="C62" s="152" t="s">
+      <c r="C62" s="143" t="s">
         <v>3105</v>
       </c>
       <c r="D62" s="100"/>
@@ -36083,8 +36093,8 @@
       <c r="A63" s="100" t="s">
         <v>3045</v>
       </c>
-      <c r="B63" s="152"/>
-      <c r="C63" s="152"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="143"/>
       <c r="D63" s="100"/>
       <c r="E63" s="100"/>
     </row>
@@ -36092,10 +36102,10 @@
       <c r="A64" s="100" t="s">
         <v>3044</v>
       </c>
-      <c r="B64" s="152" t="s">
+      <c r="B64" s="143" t="s">
         <v>3106</v>
       </c>
-      <c r="C64" s="152" t="s">
+      <c r="C64" s="143" t="s">
         <v>3107</v>
       </c>
       <c r="D64" s="100"/>
@@ -36105,10 +36115,10 @@
       <c r="A65" s="100" t="s">
         <v>3047</v>
       </c>
-      <c r="B65" s="152"/>
-      <c r="C65" s="152"/>
-      <c r="D65" s="152"/>
-      <c r="E65" s="152"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="143"/>
+      <c r="E65" s="143"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="100" t="s">
@@ -36120,39 +36130,39 @@
       <c r="C66" s="100" t="s">
         <v>3108</v>
       </c>
-      <c r="D66" s="152"/>
-      <c r="E66" s="152"/>
+      <c r="D66" s="143"/>
+      <c r="E66" s="143"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="100" t="s">
         <v>3052</v>
       </c>
-      <c r="B67" s="152">
+      <c r="B67" s="143">
         <v>1.484</v>
       </c>
-      <c r="C67" s="152" t="s">
+      <c r="C67" s="143" t="s">
         <v>3109</v>
       </c>
-      <c r="D67" s="152"/>
-      <c r="E67" s="152"/>
+      <c r="D67" s="143"/>
+      <c r="E67" s="143"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="100" t="s">
         <v>3053</v>
       </c>
-      <c r="B68" s="152"/>
-      <c r="C68" s="152"/>
-      <c r="D68" s="152"/>
-      <c r="E68" s="152"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="143"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="100" t="s">
         <v>3055</v>
       </c>
-      <c r="B69" s="152" t="s">
+      <c r="B69" s="143" t="s">
         <v>3110</v>
       </c>
-      <c r="C69" s="152" t="s">
+      <c r="C69" s="143" t="s">
         <v>3111</v>
       </c>
       <c r="D69" s="100"/>
@@ -36162,54 +36172,54 @@
       <c r="A70" s="100" t="s">
         <v>3056</v>
       </c>
-      <c r="B70" s="152"/>
-      <c r="C70" s="152"/>
-      <c r="D70" s="152"/>
-      <c r="E70" s="152"/>
+      <c r="B70" s="143"/>
+      <c r="C70" s="143"/>
+      <c r="D70" s="143"/>
+      <c r="E70" s="143"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="100" t="s">
         <v>3055</v>
       </c>
-      <c r="B71" s="152" t="s">
+      <c r="B71" s="143" t="s">
         <v>3112</v>
       </c>
-      <c r="C71" s="152" t="s">
+      <c r="C71" s="143" t="s">
         <v>3113</v>
       </c>
-      <c r="D71" s="152"/>
-      <c r="E71" s="152"/>
+      <c r="D71" s="143"/>
+      <c r="E71" s="143"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="100" t="s">
         <v>3059</v>
       </c>
-      <c r="B72" s="152"/>
-      <c r="C72" s="152"/>
-      <c r="D72" s="152"/>
-      <c r="E72" s="152"/>
+      <c r="B72" s="143"/>
+      <c r="C72" s="143"/>
+      <c r="D72" s="143"/>
+      <c r="E72" s="143"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="100" t="s">
         <v>3055</v>
       </c>
-      <c r="B73" s="152">
+      <c r="B73" s="143">
         <v>1.0760000000000001</v>
       </c>
-      <c r="C73" s="152" t="s">
+      <c r="C73" s="143" t="s">
         <v>3114</v>
       </c>
-      <c r="D73" s="152"/>
-      <c r="E73" s="152"/>
+      <c r="D73" s="143"/>
+      <c r="E73" s="143"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="100" t="s">
         <v>3062</v>
       </c>
-      <c r="B74" s="152"/>
-      <c r="C74" s="152"/>
-      <c r="D74" s="152"/>
-      <c r="E74" s="152"/>
+      <c r="B74" s="143"/>
+      <c r="C74" s="143"/>
+      <c r="D74" s="143"/>
+      <c r="E74" s="143"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="100" t="s">
@@ -36219,8 +36229,8 @@
         <v>3749</v>
       </c>
       <c r="C75"/>
-      <c r="D75" s="152"/>
-      <c r="E75" s="152"/>
+      <c r="D75" s="143"/>
+      <c r="E75" s="143"/>
     </row>
     <row r="76" spans="1:5" ht="18">
       <c r="A76" s="100" t="s">
@@ -36240,12 +36250,80 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="H30:H38"/>
+    <mergeCell ref="I30:I38"/>
+    <mergeCell ref="J30:J38"/>
+    <mergeCell ref="K30:K38"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="E30:E38"/>
+    <mergeCell ref="F30:F38"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="G30:G38"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="D74:D75"/>
@@ -36262,82 +36340,14 @@
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="D70:D71"/>
     <mergeCell ref="E70:E71"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="G30:G38"/>
-    <mergeCell ref="H30:H38"/>
-    <mergeCell ref="I30:I38"/>
-    <mergeCell ref="J30:J38"/>
-    <mergeCell ref="K30:K38"/>
-    <mergeCell ref="D30:D38"/>
-    <mergeCell ref="E30:E38"/>
-    <mergeCell ref="F30:F38"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
